--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -902,14 +902,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 36325-2023</t>
+          <t>A 9045-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45152</v>
+        <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -955,6 +955,109 @@
         <v>15</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grönhjon
+Spillkråka
+Talltita
+Björksplintborre
+Blåmossa
+Bronshjon
+Klippfrullania
+Stor revmossa
+Västlig hakmossa
+Vågbandad barkbock
+Bivråk
+Grönsiska
+Kungsfågel
+Orre
+Tjäder</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 9045-2024 artfynd.xlsx", "A 9045-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 9045-2024 karta.png", "A 9045-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 9045-2024 FSC-klagomål.docx", "A 9045-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 9045-2024 FSC-klagomål mail.docx", "A 9045-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 9045-2024 tillsynsbegäran.docx", "A 9045-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 9045-2024 tillsynsbegäran mail.docx", "A 9045-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 9045-2024 prioriterade fågelarter.docx", "A 9045-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 36325-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
@@ -973,135 +1076,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 36325-2023 artfynd.xlsx", "A 36325-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 36325-2023 karta.png", "A 36325-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 36325-2023 FSC-klagomål.docx", "A 36325-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 36325-2023 FSC-klagomål mail.docx", "A 36325-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 36325-2023 tillsynsbegäran.docx", "A 36325-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 36325-2023 tillsynsbegäran mail.docx", "A 36325-2023")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 36325-2023 prioriterade fågelarter.docx", "A 36325-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 9045-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45357</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>15</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönhjon
-Spillkråka
-Talltita
-Björksplintborre
-Blåmossa
-Bronshjon
-Klippfrullania
-Stor revmossa
-Västlig hakmossa
-Vågbandad barkbock
-Bivråk
-Grönsiska
-Kungsfågel
-Orre
-Tjäder</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 9045-2024 artfynd.xlsx", "A 9045-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 9045-2024 karta.png", "A 9045-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 9045-2024 FSC-klagomål.docx", "A 9045-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 9045-2024 FSC-klagomål mail.docx", "A 9045-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 9045-2024 tillsynsbegäran.docx", "A 9045-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 9045-2024 tillsynsbegäran mail.docx", "A 9045-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 9045-2024 prioriterade fågelarter.docx", "A 9045-2024")</f>
         <v/>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,14 +1210,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22637-2025</t>
+          <t>A 32849-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45789</v>
+        <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1245,24 +1245,124 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>12</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka
+Blåmossa
+Dropptaggsvamp
+Kornknutmossa
+Sotriska
+Stor revmossa
+Stubbspretmossa
+Västlig hakmossa
+Kungsfågel
+Vanlig groda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 32849-2023 artfynd.xlsx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 32849-2023 karta.png", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 32849-2023 FSC-klagomål.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 32849-2023 FSC-klagomål mail.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 32849-2023 tillsynsbegäran.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 32849-2023 tillsynsbegäran mail.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 32849-2023 prioriterade fågelarter.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 22637-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45789</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Ask
@@ -1278,132 +1378,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 22637-2025 artfynd.xlsx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 22637-2025 karta.png", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 22637-2025 FSC-klagomål.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 22637-2025 FSC-klagomål mail.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 22637-2025 tillsynsbegäran.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 22637-2025 tillsynsbegäran mail.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 22637-2025 prioriterade fågelarter.docx", "A 22637-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 32849-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45124</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka
-Blåmossa
-Dropptaggsvamp
-Kornknutmossa
-Sotriska
-Stor revmossa
-Stubbspretmossa
-Västlig hakmossa
-Kungsfågel
-Vanlig groda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 32849-2023 artfynd.xlsx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 32849-2023 karta.png", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 32849-2023 FSC-klagomål.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 32849-2023 FSC-klagomål mail.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 32849-2023 tillsynsbegäran.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 32849-2023 tillsynsbegäran mail.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 32849-2023 prioriterade fågelarter.docx", "A 32849-2023")</f>
         <v/>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45912.43576388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45469</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 380-2025</t>
+          <t>A 1503-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45662.43456018518</v>
+        <v>45306.35041666667</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -2596,35 +2596,35 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
         <v>45275</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2721,14 +2721,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2741,13 +2741,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -2776,49 +2776,49 @@
       <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 40931-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44903</v>
+        <v>45897.64783564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2866,49 +2866,49 @@
       <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8955-2025</t>
+          <t>A 13380-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45713.46528935185</v>
+        <v>45735.6765162037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2955,496 +2955,496 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 42660-2024</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>45566.33841435185</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C31" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>2.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 1503-2024</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45306.35041666667</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 20586-2023</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45057</v>
+        <v>44903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3491,50 +3491,50 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Entita
+          <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3547,13 +3547,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3581,45 +3581,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3666,49 +3666,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3755,45 +3755,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45469</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,7 +3810,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3840,45 +3844,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3891,7 +3895,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3900,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3915,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3925,49 +3929,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4014,45 +4014,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4065,13 +4069,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4099,45 +4103,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,7 +4154,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4159,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4174,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4184,35 +4188,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4333,14 +4333,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13462-2021</t>
+          <t>A 62855-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44273</v>
+        <v>44504.58171296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4390,14 +4390,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62855-2021</t>
+          <t>A 13462-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44504.58171296296</v>
+        <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>44523</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44369</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44443</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5359,14 +5359,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5473,14 +5473,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44308</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45306</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44456</v>
+        <v>44662</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44805</v>
+        <v>45804</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45804</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>44480.57173611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6271,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44441</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44963</v>
+        <v>45043</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45833</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45257</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6556,14 +6556,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45331</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>45222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6670,14 +6670,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44973</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45824.579375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6784,14 +6784,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6841,14 +6841,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45924</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6898,14 +6898,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44887</v>
+        <v>45833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6955,14 +6955,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45924</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7012,14 +7012,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7069,14 +7069,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7126,14 +7126,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45196</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7297,14 +7297,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7354,14 +7354,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7411,14 +7411,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44896</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>44573</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44638</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7582,14 +7582,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.9</v>
+        <v>11.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7639,14 +7639,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45933</v>
+        <v>44896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7696,14 +7696,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>45933</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7753,14 +7753,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45180</v>
+        <v>45933</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7810,14 +7810,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>44963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7867,14 +7867,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44523</v>
+        <v>44510</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7931,7 +7931,7 @@
         <v>45943.63476851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7981,14 +7981,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>44523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8038,14 +8038,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8095,14 +8095,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>5.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8152,14 +8152,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>45954.34305555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8266,14 +8266,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8323,14 +8323,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>44515</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8380,14 +8380,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45028</v>
+        <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8437,14 +8437,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8494,14 +8494,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>44887</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8551,14 +8551,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45091</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8608,14 +8608,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45712</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8665,14 +8665,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8722,14 +8722,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>44564</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8779,14 +8779,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45394</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8836,14 +8836,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8893,14 +8893,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45196</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8950,14 +8950,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45343</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9007,14 +9007,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45327</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9064,14 +9064,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44564</v>
+        <v>45833</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9121,14 +9121,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9178,14 +9178,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44656</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9235,14 +9235,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9254,8 +9254,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9292,14 +9297,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45091</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9312,7 +9317,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9349,14 +9354,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9369,7 +9374,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9406,14 +9411,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9426,7 +9431,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9463,14 +9468,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>45028</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9483,7 +9488,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9520,14 +9525,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45327</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9540,7 +9545,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9577,14 +9582,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44546</v>
+        <v>45325</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9596,13 +9601,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9696,14 +9696,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>44441</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9753,14 +9753,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45343</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9810,14 +9810,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9867,14 +9867,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45559</v>
+        <v>45054</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44662</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44949</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>45559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44515</v>
+        <v>45712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44636</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.2</v>
+        <v>7.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44585</v>
+        <v>44973</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44963</v>
+        <v>44949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45325</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45054</v>
+        <v>45306</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10608,14 +10608,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>45306</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10665,14 +10665,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45394</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10722,14 +10722,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44510</v>
+        <v>45180</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10836,14 +10836,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>44636</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10893,14 +10893,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45329</v>
+        <v>44805</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10950,14 +10950,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11007,14 +11007,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45804</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11064,14 +11064,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45804</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45804</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45331</v>
+        <v>44656</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45043</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45257</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>7.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45824.579375</v>
+        <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44585</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45833</v>
+        <v>45329</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11577,14 +11577,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45833</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11634,14 +11634,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45833</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45912.43576388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45469</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45306.35041666667</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45275</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45673.54403935185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>45897.64783564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45735.6765162037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45751.65315972222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45057</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45662.43456018518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>45713.46528935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45566.33841435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45737.63446759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45930.56170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>46007.6247337963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45728.95387731482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45385.53569444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44523</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44369</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44443</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45189.35101851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44967.53349537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45523.79202546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45307.6205787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44949.56182870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45308.50962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44827.46658564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>44662</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45230.33737268519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44475.53733796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45603.5830787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45804</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45804</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44480.57173611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44727.59578703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45043</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45894.44685185186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45257</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45123.46649305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45331</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>45222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45736.32780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45824.579375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45735.67928240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45737.63481481482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45924</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45924.90386574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091.50479166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45196</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45931.44649305556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45931.4480787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45931.63186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44573</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44638</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44351.36537037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45933</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45933</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44510</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45943.63476851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45947.31263888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45952.56412037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45954.37650462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>45954.34305555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44585.72818287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44515</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45755.58891203703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44887</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45753.53189814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45535.69445601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45978.57502314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44564</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45747.81394675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45350.40921296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45985.57778935185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>45343</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>45327</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45833</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45989.49545138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>46031.50569444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45091</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>46036.74319444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>45994.64711805555</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45028</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>46041.5952662037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45325</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>46002.6478587963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44441</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>46002.60298611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>46003.3241087963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>45054</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>46008.66553240741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44858.47591435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45713.46825231481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>46056.4970949074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>46058.64341435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44973</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44802.57002314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45394.58491898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45306</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45306</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45394</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45180</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45518.59173611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44636</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44805</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44949.54909722223</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45744.61255787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45596.66880787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45524.38400462963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44656</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44827.4609837963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45328.43502314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44585</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45601.44248842593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45329</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45790.48229166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45540.72516203704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45912.43576388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45469</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45771</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45306.35041666667</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>45275</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>45673.54403935185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>45897.64783564815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45735.6765162037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45751.65315972222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45057</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45662.43456018518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>45713.46528935185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         <v>45566.33841435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>45737.63446759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>45930.56170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>46007.6247337963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>45728.95387731482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>45469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45385.53569444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44523</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44369</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44443</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>45189.35101851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44967.53349537037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45523.79202546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45307.6205787037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44949.56182870371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45308.50962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44827.46658564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>44662</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45230.33737268519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44456</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44475.53733796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45603.5830787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45804</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45804</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>44480.57173611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>44727.59578703704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45043</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45894.44685185186</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45257</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45123.46649305556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45331</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>45222</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>45736.32780092592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>45824.579375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>45735.67928240741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>45737.63481481482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>45833</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>45924</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>45924.90386574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45091.50479166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45196</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45931.44649305556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45931.4480787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>45931.63186342592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44573</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44638</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44351.36537037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45933</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45933</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44510</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45943.63476851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44523</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45947.31263888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45952.56412037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45954.37650462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>45954.34305555555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44585.72818287037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44515</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45755.58891203703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44887</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>45753.53189814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45535.69445601852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>45978.57502314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>44564</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>45747.81394675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>45350.40921296296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45985.57778935185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>45343</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>45327</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45833</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45989.49545138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>46031.50569444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>44546</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45091</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>46036.74319444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>45994.64711805555</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>45028</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>46041.5952662037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45325</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>46002.6478587963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44441</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>46002.60298611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>46003.3241087963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>45054</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>46008.66553240741</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>44858.47591435185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45713.46825231481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>45559</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>46056.4970949074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45712</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>46058.64341435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44973</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>44949</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>44802.57002314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45394.58491898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45306</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45306</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>45394</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45180</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45518.59173611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>44636</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44805</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44949.54909722223</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>45744.61255787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45596.66880787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45524.38400462963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44656</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44827.4609837963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45328.43502314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11413,7 +11413,7 @@
         <v>44585</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11470,7 +11470,7 @@
         <v>45601.44248842593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11527,7 +11527,7 @@
         <v>45329</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>45790.48229166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>45540.72516203704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45912.43576388889</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>45469</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>45350</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2266,14 +2266,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60293-2025</t>
+          <t>A 19934-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45994.65568287037</v>
+        <v>45771</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,16 +2286,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2319,6 +2319,98 @@
         <v>4</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 60293-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45994.65568287037</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Entita
 Rödvingetrast
@@ -2326,124 +2418,32 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 19934-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
         <v/>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1503-2024</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45306.35041666667</v>
+        <v>44903</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -2596,49 +2596,49 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 63569-2023</t>
+          <t>A 13380-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45275</v>
+        <v>45735.6765162037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2685,590 +2685,590 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 40931-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45897.64783564815</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 63569-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H24" t="n">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 40931-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45897.64783564815</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 8955-2025</t>
+          <t>A 42660-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45713.46528935185</v>
+        <v>45566.33841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3315,136 +3315,136 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 2270-2025</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45673.54403935185</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 42660-2024</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45566.33841435185</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer
-Revlummer</t>
-        </is>
-      </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 1503-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44903</v>
+        <v>45306.35041666667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -3492,49 +3492,49 @@
       <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3547,17 +3547,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3581,45 +3581,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3636,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3666,49 +3670,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45469</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3725,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3730,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3745,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3755,35 +3759,31 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
         <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3875,14 +3875,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3929,45 +3929,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3984,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3989,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4004,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4014,49 +4018,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45469</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4103,45 +4103,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4154,13 +4154,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4188,31 +4188,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44523</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44369</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44443</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5359,14 +5359,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44805</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>44441</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44662</v>
+        <v>44963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44456</v>
+        <v>45222</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45804</v>
+        <v>45824.579375</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45804</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45804</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45833</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45043</v>
+        <v>45833</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45833</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45257</v>
+        <v>45091</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6556,14 +6556,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45331</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6613,14 +6613,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45222</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6670,14 +6670,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>44564</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6784,14 +6784,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44456</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6841,14 +6841,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45924</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6898,14 +6898,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45833</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6955,14 +6955,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45924</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7012,14 +7012,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7069,14 +7069,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7126,14 +7126,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45833</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45833</v>
+        <v>44896</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45196</v>
+        <v>44573</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7297,14 +7297,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7354,14 +7354,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>44638</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7411,14 +7411,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>44308</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7468,14 +7468,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44573</v>
+        <v>45933</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7525,14 +7525,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44638</v>
+        <v>45933</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7582,14 +7582,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45306</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>11.3</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7639,14 +7639,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44896</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7696,14 +7696,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45933</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7753,14 +7753,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45933</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7810,14 +7810,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44963</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7867,14 +7867,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44510</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7924,14 +7924,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>10.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7981,14 +7981,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44523</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8038,14 +8038,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>44973</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8095,14 +8095,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>44887</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8152,14 +8152,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45180</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8209,14 +8209,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>10.6</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8266,14 +8266,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45028</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8323,14 +8323,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44515</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8380,14 +8380,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44308</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8437,14 +8437,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45394</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8494,14 +8494,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44887</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8551,14 +8551,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45196</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8608,14 +8608,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8665,14 +8665,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8722,14 +8722,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44564</v>
+        <v>44656</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8779,14 +8779,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8836,14 +8836,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>45833</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8893,14 +8893,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8950,14 +8950,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45343</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9007,14 +9007,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45327</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9064,14 +9064,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45833</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9121,14 +9121,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9178,14 +9178,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9235,14 +9235,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44546</v>
+        <v>45327</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9254,13 +9254,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9297,14 +9292,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45091</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9317,7 +9312,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9361,7 +9356,7 @@
         <v>46036.74319444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,14 +9406,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>44546</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9430,8 +9425,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9468,14 +9468,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45028</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9525,14 +9525,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9582,14 +9582,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45325</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9696,14 +9696,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44441</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9753,14 +9753,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9810,14 +9810,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9867,14 +9867,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45054</v>
+        <v>45343</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45712</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45559</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45712</v>
+        <v>45559</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>44662</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44973</v>
+        <v>44949</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44949</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10608,14 +10608,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45306</v>
+        <v>44636</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10665,14 +10665,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45394</v>
+        <v>44585</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10722,14 +10722,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45180</v>
+        <v>44963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45325</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10836,14 +10836,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44636</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10893,14 +10893,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44805</v>
+        <v>45054</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10950,14 +10950,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45306</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11007,14 +11007,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11064,14 +11064,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>44510</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44656</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45329</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44963</v>
+        <v>45804</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44585</v>
+        <v>45804</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45804</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11577,14 +11577,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>45043</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11634,14 +11634,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45257</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,14 +1508,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 43732-2025</t>
+          <t>A 51991-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45912.43576388889</v>
+        <v>45952</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,17 +1528,17 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1555,12 +1555,109 @@
         <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>9</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Entita
+Spillkråka
+Stubbtrådmossa
+Blåmossa
+Klippfrullania
+Lönnlav
+Västlig hakmossa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 51991-2025 artfynd.xlsx", "A 51991-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 51991-2025 karta.png", "A 51991-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 51991-2025 FSC-klagomål.docx", "A 51991-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 51991-2025 FSC-klagomål mail.docx", "A 51991-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 51991-2025 tillsynsbegäran.docx", "A 51991-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 51991-2025 tillsynsbegäran mail.docx", "A 51991-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 51991-2025 prioriterade fågelarter.docx", "A 51991-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 43732-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45912</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Mindre hackspett
@@ -1573,129 +1670,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 43732-2025 artfynd.xlsx", "A 43732-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 43732-2025 karta.png", "A 43732-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 43732-2025 FSC-klagomål.docx", "A 43732-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 43732-2025 FSC-klagomål mail.docx", "A 43732-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 43732-2025 tillsynsbegäran.docx", "A 43732-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 43732-2025 tillsynsbegäran mail.docx", "A 43732-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 43732-2025 prioriterade fågelarter.docx", "A 43732-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 51991-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45952</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>9</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Entita
-Spillkråka
-Stubbtrådmossa
-Blåmossa
-Klippfrullania
-Lönnlav
-Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 51991-2025 artfynd.xlsx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 51991-2025 karta.png", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 51991-2025 FSC-klagomål.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 51991-2025 FSC-klagomål mail.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 51991-2025 tillsynsbegäran.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 51991-2025 tillsynsbegäran mail.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 51991-2025 prioriterade fågelarter.docx", "A 51991-2025")</f>
         <v/>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 26491-2024</t>
+          <t>A 7903-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45469</v>
+        <v>45350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,17 +2102,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2135,6 +2135,98 @@
         <v>4</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Talltita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 26491-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45469</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Gulpudrad spiklav
@@ -2142,124 +2234,32 @@
 Sotlav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 7903-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45350</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Talltita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
         <v/>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>45771</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 40931-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44903</v>
+        <v>45897.64783564815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2596,49 +2596,49 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 13380-2025</t>
+          <t>A 63569-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45735.6765162037</v>
+        <v>45275</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2685,766 +2685,766 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 1503-2024</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45306.35041666667</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 2270-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45673.54403935185</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 13380-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45735.6765162037</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Spillkråka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 40931-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45897.64783564815</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H24" t="n">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 63569-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45275</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 8955-2025</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45713.46528935185</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="Z29">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 42660-2024</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>45566.33841435185</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>2.5</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>2</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 1503-2024</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45306.35041666667</v>
+        <v>44903</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -3492,49 +3492,49 @@
       <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3547,16 +3547,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3581,49 +3581,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3636,7 +3632,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3670,49 +3666,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45469</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3721,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3734,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3749,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3759,31 +3755,35 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
         <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3875,14 +3875,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3929,49 +3929,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3984,7 +3980,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3993,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4008,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4018,45 +4014,49 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4103,45 +4103,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4154,13 +4154,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4188,31 +4188,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44523</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44384</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44369</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44443</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44441</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44468</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5359,14 +5359,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44805</v>
+        <v>44456</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44441</v>
+        <v>44963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44963</v>
+        <v>44585</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45222</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45329</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45833</v>
+        <v>44662</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45833</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45833</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45091</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6556,14 +6556,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6613,14 +6613,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6670,14 +6670,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44564</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45804</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6784,14 +6784,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44456</v>
+        <v>45804</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6841,14 +6841,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45924</v>
+        <v>45804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6898,14 +6898,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6955,14 +6955,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45924</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7012,14 +7012,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7069,14 +7069,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7126,14 +7126,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45043</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44896</v>
+        <v>45257</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44573</v>
+        <v>45331</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7297,14 +7297,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45824.579375</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7354,14 +7354,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44638</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7411,14 +7411,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44308</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7468,14 +7468,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45933</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7525,14 +7525,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45933</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7582,14 +7582,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45306</v>
+        <v>45833</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7639,14 +7639,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7696,14 +7696,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>45833</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7753,14 +7753,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7810,14 +7810,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45833</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7867,14 +7867,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>44573</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7924,14 +7924,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44638</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>10.6</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7981,14 +7981,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45196</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8038,14 +8038,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44973</v>
+        <v>44896</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>10.5</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8095,14 +8095,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44887</v>
+        <v>45933</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8152,14 +8152,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45180</v>
+        <v>45933</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8209,14 +8209,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44523</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>11.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8266,14 +8266,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45028</v>
+        <v>44963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8323,14 +8323,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>44510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8380,14 +8380,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8437,14 +8437,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45394</v>
+        <v>44523</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8494,14 +8494,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.2</v>
+        <v>12</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8551,14 +8551,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45196</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8608,14 +8608,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>44515</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.1</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8665,14 +8665,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8722,14 +8722,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44656</v>
+        <v>44308</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8779,14 +8779,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8836,14 +8836,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45833</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>10.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8893,14 +8893,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8950,14 +8950,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>44887</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9007,14 +9007,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9064,14 +9064,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9121,14 +9121,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>44564</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9178,14 +9178,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9198,7 +9198,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9235,14 +9235,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45327</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9292,14 +9292,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9349,14 +9349,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45343</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9406,14 +9406,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44546</v>
+        <v>45327</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9425,13 +9425,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9468,14 +9463,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9488,7 +9483,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9525,14 +9520,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>44546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9544,8 +9539,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9582,14 +9582,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45833</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9696,14 +9696,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9753,14 +9753,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>45091</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9810,14 +9810,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9867,14 +9867,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45343</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45028</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45712</v>
+        <v>45325</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>44441</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45559</v>
+        <v>45054</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44662</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44949</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>11.3</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>45559</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44515</v>
+        <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10608,14 +10608,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44636</v>
+        <v>44949</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10665,14 +10665,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44585</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10722,14 +10722,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44963</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45325</v>
+        <v>45712</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10836,14 +10836,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10893,14 +10893,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45054</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10950,14 +10950,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45306</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11007,14 +11007,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45306</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11064,14 +11064,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44510</v>
+        <v>45306</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45394</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>45180</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45329</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>44636</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45804</v>
+        <v>44805</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45804</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45804</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45331</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11577,14 +11577,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45043</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11634,14 +11634,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45257</v>
+        <v>44656</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z171"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45789</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45952</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>45912</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45796</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7903-2024</t>
+          <t>A 26491-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45350</v>
+        <v>45469</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,16 +2102,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2135,6 +2135,190 @@
         <v>4</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Gulpudrad spiklav
+Rostfläck
+Sotlav</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 19934-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 7903-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
@@ -2142,216 +2326,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 26491-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Gulpudrad spiklav
-Rostfläck
-Sotlav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 19934-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
         <v/>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 63569-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45275</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2596,49 +2596,49 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Talltita</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 63569-2023</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45275</v>
+        <v>44903</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,16 +2651,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2686,49 +2686,49 @@
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Talltita</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 1503-2024</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45306.35041666667</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
@@ -2780,45 +2780,45 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2270-2025</t>
+          <t>A 1503-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45673.54403935185</v>
+        <v>45306.35041666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
         <v>45735.6765162037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>45751.65315972222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>45057</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>45662.43456018518</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3261,14 +3261,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 8955-2025</t>
+          <t>A 40931-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45713.46528935185</v>
+        <v>45897.64783564815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -3316,35 +3316,35 @@
       <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
         <v>45566.33841435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3437,14 +3437,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 8955-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44903</v>
+        <v>45713.46528935185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -3492,35 +3492,35 @@
       <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
         <v/>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3612,14 +3612,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45469</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3666,49 +3666,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3721,7 +3717,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3755,49 +3751,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3810,7 +3806,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3844,45 +3840,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3895,7 +3891,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3904,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3919,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3929,45 +3925,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -4018,45 +4018,45 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45469</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4103,45 +4103,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -4192,27 +4192,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>44273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>44523</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>44456</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>44389</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4675,14 +4675,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31568-2021</t>
+          <t>A 35148-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44369</v>
+        <v>44384</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4695,7 +4695,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 66893-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44515</v>
+        <v>44522.49439814815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22138-2021</t>
+          <t>A 15508-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44324.67472222223</v>
+        <v>44662.39761574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35148-2021</t>
+          <t>A 31566-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44384</v>
+        <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4903,14 +4903,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 66893-2021</t>
+          <t>A 14751-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44522.49439814815</v>
+        <v>44656.3837037037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4960,14 +4960,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 15508-2022</t>
+          <t>A 46391-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44662.39761574074</v>
+        <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5017,14 +5017,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31566-2021</t>
+          <t>A 45986-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44369</v>
+        <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5074,14 +5074,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46391-2021</t>
+          <t>A 31568-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44443</v>
+        <v>44369</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5131,14 +5131,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 45986-2021</t>
+          <t>A 53144-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44441</v>
+        <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5188,14 +5188,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14751-2022</t>
+          <t>A 20285-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44656.3837037037</v>
+        <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5245,14 +5245,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53144-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44468</v>
+        <v>44515</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5302,14 +5302,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20285-2022</t>
+          <t>A 22138-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44698.76347222222</v>
+        <v>44324.67472222223</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5359,14 +5359,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>44963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5416,14 +5416,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5473,14 +5473,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5530,14 +5530,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5587,14 +5587,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44456</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5644,14 +5644,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5701,14 +5701,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44963</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44585</v>
+        <v>44973</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45180</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>44805</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>44523</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>45028</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45329</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44662</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>45394</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>44441</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6556,14 +6556,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45196</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6613,14 +6613,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6670,14 +6670,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45331</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6727,14 +6727,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45804</v>
+        <v>45043</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6784,14 +6784,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45804</v>
+        <v>45257</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6841,14 +6841,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45804</v>
+        <v>45091</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6898,14 +6898,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>44656</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6955,14 +6955,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45924</v>
+        <v>45824.579375</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7012,14 +7012,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7069,14 +7069,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45222</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7126,14 +7126,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45043</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45257</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45331</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7297,14 +7297,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45824.579375</v>
+        <v>44515</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7354,14 +7354,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44636</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7411,14 +7411,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45833</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7468,14 +7468,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45833</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7525,14 +7525,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7582,14 +7582,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>45833</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7639,14 +7639,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7696,14 +7696,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45833</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7753,14 +7753,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7810,14 +7810,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45833</v>
+        <v>45327</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7867,14 +7867,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44573</v>
+        <v>44585</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7924,14 +7924,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44638</v>
+        <v>44546</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7943,8 +7943,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7981,14 +7986,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45196</v>
+        <v>44963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8001,7 +8006,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8038,14 +8043,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44896</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8058,7 +8063,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8095,14 +8100,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45933</v>
+        <v>44564</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8115,7 +8120,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8152,14 +8157,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45933</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8172,7 +8177,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8209,14 +8214,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8229,7 +8234,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8266,14 +8271,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44963</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8323,14 +8328,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44510</v>
+        <v>45343</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8343,7 +8348,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8380,14 +8385,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8400,7 +8405,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8437,14 +8442,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44523</v>
+        <v>44456</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8494,14 +8499,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8514,7 +8519,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8551,14 +8556,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>44308</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8571,7 +8576,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8608,14 +8613,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44515</v>
+        <v>45306</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8628,7 +8633,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8665,14 +8670,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8685,7 +8690,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8722,14 +8727,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44308</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8742,7 +8747,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8779,14 +8784,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8799,7 +8804,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8836,14 +8841,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>45559</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8856,7 +8861,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>10.6</v>
+        <v>8.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8893,14 +8898,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>44662</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8913,7 +8918,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8950,14 +8955,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44887</v>
+        <v>45325</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8970,7 +8975,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9014,7 +9019,7 @@
         <v>45753.53189814815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9064,14 +9069,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>44949</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9084,7 +9089,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9121,14 +9126,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44564</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9141,7 +9146,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9178,14 +9183,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45054</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9198,7 +9203,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9235,14 +9240,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9255,7 +9260,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9292,14 +9297,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45306</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9312,7 +9317,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9349,14 +9354,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45343</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9369,7 +9374,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9406,14 +9411,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45327</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9426,7 +9431,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9463,14 +9468,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>44510</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9483,7 +9488,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9520,14 +9525,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44546</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9539,13 +9544,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9582,14 +9582,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45833</v>
+        <v>45924</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9696,14 +9696,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9753,14 +9753,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45091</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9810,14 +9810,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9867,14 +9867,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>44896</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45028</v>
+        <v>44573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>44638</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45325</v>
+        <v>45933</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44441</v>
+        <v>45933</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10152,14 +10152,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10209,14 +10209,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45054</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10266,14 +10266,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45329</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10323,14 +10323,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10380,14 +10380,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10437,14 +10437,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10494,14 +10494,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45559</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>8.4</v>
+        <v>10.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10551,14 +10551,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44973</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10608,14 +10608,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44949</v>
+        <v>45804</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10665,14 +10665,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45804</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10722,14 +10722,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45804</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10779,14 +10779,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45712</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10836,14 +10836,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10893,14 +10893,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45833</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10950,14 +10950,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11007,14 +11007,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45306</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11064,14 +11064,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45306</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45394</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45180</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44636</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11349,14 +11349,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44805</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11406,14 +11406,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11463,14 +11463,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11520,14 +11520,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11577,14 +11577,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>45712</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11631,17 +11631,17 @@
       </c>
       <c r="R170" s="2" t="inlineStr"/>
     </row>
-    <row r="171">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44656</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11687,6 +11687,63 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A 8111-2026</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,14 +1210,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32849-2023</t>
+          <t>A 22637-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45124</v>
+        <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1245,24 +1245,124 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
         <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>12</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask
+Entita
+Spillkråka
+Lilanopping
+Platt fjädermossa
+Skogshakmossa
+Stor revmossa
+Tibast
+Trubbfjädermossa
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 22637-2025 artfynd.xlsx", "A 22637-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 22637-2025 karta.png", "A 22637-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 22637-2025 FSC-klagomål.docx", "A 22637-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 22637-2025 FSC-klagomål mail.docx", "A 22637-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 22637-2025 tillsynsbegäran.docx", "A 22637-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 22637-2025 tillsynsbegäran mail.docx", "A 22637-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 22637-2025 prioriterade fågelarter.docx", "A 22637-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 32849-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka
@@ -1278,132 +1378,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 32849-2023 artfynd.xlsx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 32849-2023 karta.png", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 32849-2023 FSC-klagomål.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 32849-2023 FSC-klagomål mail.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 32849-2023 tillsynsbegäran.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 32849-2023 tillsynsbegäran mail.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 32849-2023 prioriterade fågelarter.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 22637-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45789</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask
-Entita
-Spillkråka
-Lilanopping
-Platt fjädermossa
-Skogshakmossa
-Stor revmossa
-Tibast
-Trubbfjädermossa
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 22637-2025 artfynd.xlsx", "A 22637-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 22637-2025 karta.png", "A 22637-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 22637-2025 FSC-klagomål.docx", "A 22637-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 22637-2025 FSC-klagomål mail.docx", "A 22637-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 22637-2025 tillsynsbegäran.docx", "A 22637-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 22637-2025 tillsynsbegäran mail.docx", "A 22637-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 22637-2025 prioriterade fågelarter.docx", "A 22637-2025")</f>
         <v/>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>45952</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1605,14 +1605,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 43732-2025</t>
+          <t>A 37005-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45912</v>
+        <v>45874.69311342593</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1643,118 +1643,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Mindre hackspett
-Spillkråka
-Talltita
-Björksplintborre
-Bronshjon
-Smal svampklubba
-Kungsfågel
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 43732-2025 artfynd.xlsx", "A 43732-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 43732-2025 karta.png", "A 43732-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 43732-2025 FSC-klagomål.docx", "A 43732-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 43732-2025 FSC-klagomål mail.docx", "A 43732-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 43732-2025 tillsynsbegäran.docx", "A 43732-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 43732-2025 tillsynsbegäran mail.docx", "A 43732-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 43732-2025 prioriterade fågelarter.docx", "A 43732-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 37005-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45874.69311342593</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Spillkråka
@@ -1766,91 +1669,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 37005-2025 artfynd.xlsx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 37005-2025 karta.png", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 37005-2025 FSC-klagomål.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 37005-2025 FSC-klagomål mail.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 37005-2025 tillsynsbegäran.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 37005-2025 tillsynsbegäran mail.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 37005-2025 prioriterade fågelarter.docx", "A 37005-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 40059-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45894.42600694444</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>0.9</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H13" t="n">
         <v>6</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>7</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1861,91 +1764,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40059-2025 artfynd.xlsx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40059-2025 karta.png", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40059-2025 FSC-klagomål.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40059-2025 FSC-klagomål mail.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40059-2025 tillsynsbegäran.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40059-2025 tillsynsbegäran mail.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40059-2025 prioriterade fågelarter.docx", "A 40059-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 46084-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45924.51282407407</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>4.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I14" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>7</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1956,91 +1859,91 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 46084-2025 artfynd.xlsx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 46084-2025 karta.png", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 46084-2025 FSC-klagomål.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 46084-2025 FSC-klagomål mail.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 46084-2025 tillsynsbegäran.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 46084-2025 tillsynsbegäran mail.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 46084-2025 prioriterade fågelarter.docx", "A 46084-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 24162-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>5.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>6</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blanksvart trämyra
@@ -2050,91 +1953,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 24162-2025 artfynd.xlsx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 24162-2025 karta.png", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 24162-2025 FSC-klagomål.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 24162-2025 FSC-klagomål mail.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 24162-2025 tillsynsbegäran.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 24162-2025 tillsynsbegäran mail.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 24162-2025 prioriterade fågelarter.docx", "A 24162-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 26491-2024</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45469</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>5.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Gulpudrad spiklav
@@ -2142,32 +2045,124 @@
 Sotlav</t>
         </is>
       </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 7903-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Talltita
+Kungsfågel</t>
+        </is>
+      </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
         <v/>
       </c>
     </row>
@@ -2181,7 +2176,7 @@
         <v>45771</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2266,14 +2261,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 7903-2024</t>
+          <t>A 60293-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45350</v>
+        <v>45994.65568287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2286,16 +2281,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2310,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2319,98 +2314,6 @@
         <v>4</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Talltita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 60293-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45994.65568287037</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Entita
 Rödvingetrast
@@ -2418,137 +2321,227 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 63575-2023</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45275.39715277778</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>1.2</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
 Talltita</t>
         </is>
       </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63575-2023 artfynd.xlsx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63575-2023 karta.png", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63575-2023 FSC-klagomål.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63575-2023 FSC-klagomål mail.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63575-2023 tillsynsbegäran.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63575-2023 tillsynsbegäran mail.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63575-2023 prioriterade fågelarter.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 1503-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45306.35041666667</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63575-2023 artfynd.xlsx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63575-2023 karta.png", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63575-2023 FSC-klagomål.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63575-2023 FSC-klagomål mail.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63575-2023 tillsynsbegäran.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63575-2023 tillsynsbegäran mail.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63575-2023 prioriterade fågelarter.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63569-2023</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45275</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2561,7 +2554,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -2570,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2585,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2596,49 +2589,49 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Talltita</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 63569-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44903</v>
+        <v>45275</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2651,16 +2644,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2675,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2686,49 +2679,49 @@
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Talltita</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2270-2025</t>
+          <t>A 13380-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45673.54403935185</v>
+        <v>45735.6765162037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2741,7 +2734,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
@@ -2750,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2765,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2775,500 +2768,500 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 40931-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45897.64783564815</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 1503-2024</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45306.35041666667</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 42660-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45566.33841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3281,16 +3274,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3305,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3315,50 +3308,46 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Blåmossa</t>
+          <t>Mattlummer
+Revlummer</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 42660-2024</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45566.33841435185</v>
+        <v>44903</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3371,16 +3360,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3395,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3405,46 +3394,50 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8955-2025</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45713.46528935185</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3457,84 +3450,79 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Revlummer</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3547,17 +3535,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3581,45 +3569,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45469</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,7 +3624,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3641,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3656,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3666,45 +3658,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3717,7 +3713,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3726,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3741,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3751,49 +3747,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3806,7 +3798,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3815,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3830,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3840,45 +3832,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45469</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3891,7 +3887,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3900,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3915,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3925,49 +3921,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3980,7 +3972,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3989,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -4004,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4014,49 +4006,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4069,7 +4057,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -4103,45 +4091,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 21281-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>44320.61850694445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4154,10 +4142,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4184,49 +4172,21 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
-        <v/>
-      </c>
-      <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
-        <v/>
-      </c>
-      <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
-        <v/>
-      </c>
-      <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
-        <v/>
-      </c>
-      <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
-        <v/>
-      </c>
-      <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21281-2021</t>
+          <t>A 14517-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44320.61850694445</v>
+        <v>44279.64517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4239,7 +4199,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4276,14 +4236,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14517-2021</t>
+          <t>A 62855-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44279.64517361111</v>
+        <v>44504.58171296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4296,7 +4256,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4333,14 +4293,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 62855-2021</t>
+          <t>A 13462-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44504.58171296296</v>
+        <v>44273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4353,7 +4313,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4390,14 +4350,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 13462-2021</t>
+          <t>A 67165-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44273</v>
+        <v>44523</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4410,7 +4370,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4447,14 +4407,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 67165-2021</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44523</v>
+        <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4467,7 +4427,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4504,14 +4464,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 36394-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44456</v>
+        <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4524,7 +4484,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4561,14 +4521,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 36394-2021</t>
+          <t>A 3179-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44389</v>
+        <v>44582.61788194445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4581,7 +4541,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4618,14 +4578,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3179-2022</t>
+          <t>A 31568-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44582.61788194445</v>
+        <v>44369</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4638,7 +4598,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4675,14 +4635,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35148-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44384</v>
+        <v>44515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4695,7 +4655,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4732,14 +4692,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 66893-2021</t>
+          <t>A 22138-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44522.49439814815</v>
+        <v>44324.67472222223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4752,7 +4712,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4789,14 +4749,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15508-2022</t>
+          <t>A 35148-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44662.39761574074</v>
+        <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4809,7 +4769,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4846,14 +4806,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31566-2021</t>
+          <t>A 66893-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44369</v>
+        <v>44522.49439814815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4866,7 +4826,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4903,14 +4863,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14751-2022</t>
+          <t>A 15508-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44656.3837037037</v>
+        <v>44662.39761574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4923,7 +4883,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4960,14 +4920,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46391-2021</t>
+          <t>A 31566-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44443</v>
+        <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4980,7 +4940,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5017,14 +4977,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45986-2021</t>
+          <t>A 46391-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44441</v>
+        <v>44443</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5037,7 +4997,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5074,14 +5034,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31568-2021</t>
+          <t>A 45986-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44369</v>
+        <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5094,7 +5054,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5131,14 +5091,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53144-2021</t>
+          <t>A 14751-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44468</v>
+        <v>44656.3837037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5151,7 +5111,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5188,14 +5148,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20285-2022</t>
+          <t>A 53144-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44698.76347222222</v>
+        <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5208,7 +5168,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5245,14 +5205,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 20285-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44515</v>
+        <v>44698.76347222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5265,7 +5225,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5302,14 +5262,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22138-2021</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44324.67472222223</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5322,7 +5282,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5359,14 +5319,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44963</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5379,7 +5339,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5416,14 +5376,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5436,7 +5396,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5473,14 +5433,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45222</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5493,7 +5453,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5530,14 +5490,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5550,7 +5510,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5587,14 +5547,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5607,7 +5567,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5644,14 +5604,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5664,7 +5624,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5701,14 +5661,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>44456</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5721,7 +5681,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5758,14 +5718,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44973</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5778,7 +5738,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5815,14 +5775,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44887</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5835,7 +5795,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5872,14 +5832,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>44662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5892,7 +5852,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5929,14 +5889,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5949,7 +5909,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5986,14 +5946,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45180</v>
+        <v>45804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6043,14 +6003,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44805</v>
+        <v>45804</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6063,7 +6023,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6100,14 +6060,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44523</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6120,7 +6080,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6157,14 +6117,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45028</v>
+        <v>46062</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6177,7 +6137,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6214,14 +6174,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45804</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6234,7 +6194,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6271,14 +6231,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6291,7 +6251,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6328,14 +6288,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45394</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6348,7 +6308,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6385,14 +6345,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45043</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6405,7 +6365,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6442,14 +6402,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44441</v>
+        <v>45257</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6462,7 +6422,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6506,7 +6466,7 @@
         <v>44727.59578703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6556,14 +6516,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45196</v>
+        <v>45331</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6576,7 +6536,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6613,14 +6573,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6633,7 +6593,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6670,14 +6630,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45331</v>
+        <v>45824.579375</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6690,7 +6650,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6727,14 +6687,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45043</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6747,7 +6707,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6784,14 +6744,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45257</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6804,7 +6764,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6841,14 +6801,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45091</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6861,7 +6821,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6898,14 +6858,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44656</v>
+        <v>45222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6918,7 +6878,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6955,14 +6915,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45833</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6975,7 +6935,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7012,14 +6972,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>45833</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7032,7 +6992,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7069,14 +7029,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45833</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7089,7 +7049,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7126,14 +7086,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7146,7 +7106,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7183,14 +7143,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>45196</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7203,7 +7163,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7240,14 +7200,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7260,7 +7220,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>11.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7297,14 +7257,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44515</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7317,7 +7277,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7354,14 +7314,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44636</v>
+        <v>44963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7374,7 +7334,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7411,14 +7371,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45833</v>
+        <v>44510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7431,7 +7391,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7468,14 +7428,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45833</v>
+        <v>44523</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7488,7 +7448,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7525,14 +7485,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45924</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7545,7 +7505,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7582,14 +7542,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45833</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7602,7 +7562,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7639,14 +7599,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7659,7 +7619,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7696,14 +7656,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7716,7 +7676,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7753,14 +7713,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>44515</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7773,7 +7733,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7810,14 +7770,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45327</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7830,7 +7790,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7867,14 +7827,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44585</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7887,7 +7847,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7924,14 +7884,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44546</v>
+        <v>44573</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7943,13 +7903,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7986,14 +7941,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44963</v>
+        <v>44638</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8006,7 +7961,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8043,14 +7998,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>44896</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8063,7 +8018,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8100,14 +8055,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44564</v>
+        <v>44308</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8120,7 +8075,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8157,14 +8112,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45933</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8177,7 +8132,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8214,14 +8169,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>45933</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8234,7 +8189,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8271,14 +8226,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8291,7 +8246,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8328,14 +8283,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45343</v>
+        <v>44887</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8348,7 +8303,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8385,14 +8340,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8405,7 +8360,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8442,14 +8397,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44456</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8462,7 +8417,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8499,14 +8454,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8519,7 +8474,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8556,14 +8511,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44308</v>
+        <v>44564</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8576,7 +8531,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8613,14 +8568,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45306</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8633,7 +8588,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8670,14 +8625,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8690,7 +8645,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8727,14 +8682,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8747,7 +8702,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8784,14 +8739,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>45343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8841,14 +8796,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45559</v>
+        <v>45327</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8861,7 +8816,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8898,14 +8853,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44662</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8918,7 +8873,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8955,14 +8910,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45325</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8975,7 +8930,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9012,14 +8967,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>44546</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9031,8 +8986,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9069,14 +9029,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44949</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9089,7 +9049,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>10.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9126,14 +9086,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45091</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9146,7 +9106,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9183,14 +9143,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45054</v>
+        <v>45028</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9203,7 +9163,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9240,14 +9200,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45325</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9260,7 +9220,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9297,14 +9257,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45306</v>
+        <v>44441</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9317,7 +9277,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9354,14 +9314,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9374,7 +9334,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9411,14 +9371,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45054</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9431,7 +9391,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9468,14 +9428,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44510</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9488,7 +9448,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9525,14 +9485,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45833</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9545,7 +9505,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9582,14 +9542,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45924</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9602,7 +9562,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9639,14 +9599,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9659,7 +9619,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9696,14 +9656,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9716,7 +9676,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9753,14 +9713,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45559</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9773,7 +9733,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9810,14 +9770,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>44973</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9830,7 +9790,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9867,14 +9827,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44896</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9887,7 +9847,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9924,14 +9884,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44573</v>
+        <v>44949</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9944,7 +9904,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9981,14 +9941,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44638</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10001,7 +9961,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10038,14 +9998,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45933</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10058,7 +10018,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10095,14 +10055,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45933</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10115,7 +10075,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10152,14 +10112,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10172,7 +10132,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10209,14 +10169,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10229,7 +10189,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10266,14 +10226,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45329</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10286,7 +10246,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10323,14 +10283,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10343,7 +10303,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10380,14 +10340,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10400,7 +10360,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10437,14 +10397,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45306</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10457,7 +10417,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10494,14 +10454,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>45306</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10514,7 +10474,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10.6</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10551,14 +10511,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10571,7 +10531,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10608,14 +10568,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45804</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10628,7 +10588,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10665,14 +10625,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45804</v>
+        <v>45712</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10685,7 +10645,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10722,14 +10682,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45804</v>
+        <v>45394</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10742,7 +10702,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10779,14 +10739,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45180</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10799,7 +10759,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10836,14 +10796,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10856,7 +10816,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10893,14 +10853,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45833</v>
+        <v>44636</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10913,7 +10873,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10950,14 +10910,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>44805</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10930,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11007,14 +10967,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11027,7 +10987,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11064,14 +11024,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11084,7 +11044,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11121,14 +11081,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11141,7 +11101,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11178,14 +11138,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11198,7 +11158,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11235,14 +11195,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>44656</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11255,7 +11215,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11292,14 +11252,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11312,7 +11272,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11349,14 +11309,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11369,7 +11329,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.1</v>
+        <v>7.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11406,14 +11366,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>44963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11426,7 +11386,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11463,14 +11423,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>44585</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11483,7 +11443,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11520,14 +11480,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11540,7 +11500,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11577,14 +11537,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45712</v>
+        <v>45329</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11597,7 +11557,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11631,17 +11591,17 @@
       </c>
       <c r="R170" s="2" t="inlineStr"/>
     </row>
-    <row r="171" ht="15" customHeight="1">
+    <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11654,7 +11614,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11687,63 +11647,6 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>A 8111-2026</t>
-        </is>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="C172" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>0</v>
-      </c>
-      <c r="R172" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z171"/>
+  <dimension ref="A1:Z173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>45152</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,14 +1210,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 22637-2025</t>
+          <t>A 32849-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45789</v>
+        <v>45124</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1245,24 +1245,124 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>12</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Spillkråka
+Blåmossa
+Dropptaggsvamp
+Kornknutmossa
+Sotriska
+Stor revmossa
+Stubbspretmossa
+Västlig hakmossa
+Kungsfågel
+Vanlig groda
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 32849-2023 artfynd.xlsx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 32849-2023 karta.png", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 32849-2023 FSC-klagomål.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 32849-2023 FSC-klagomål mail.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 32849-2023 tillsynsbegäran.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 32849-2023 tillsynsbegäran mail.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 32849-2023 prioriterade fågelarter.docx", "A 32849-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 22637-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45789</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Ask
@@ -1278,132 +1378,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 22637-2025 artfynd.xlsx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 22637-2025 karta.png", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 22637-2025 FSC-klagomål.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 22637-2025 FSC-klagomål mail.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 22637-2025 tillsynsbegäran.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 22637-2025 tillsynsbegäran mail.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 22637-2025 prioriterade fågelarter.docx", "A 22637-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 32849-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45124</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Spillkråka
-Blåmossa
-Dropptaggsvamp
-Kornknutmossa
-Sotriska
-Stor revmossa
-Stubbspretmossa
-Västlig hakmossa
-Kungsfågel
-Vanlig groda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 32849-2023 artfynd.xlsx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 32849-2023 karta.png", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 32849-2023 FSC-klagomål.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 32849-2023 FSC-klagomål mail.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 32849-2023 tillsynsbegäran.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 32849-2023 tillsynsbegäran mail.docx", "A 32849-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 32849-2023 prioriterade fågelarter.docx", "A 32849-2023")</f>
         <v/>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
         <v>45559</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,14 +1508,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 51991-2025</t>
+          <t>A 37005-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45952</v>
+        <v>45874.69311342593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1552,112 +1552,15 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Entita
-Spillkråka
-Stubbtrådmossa
-Blåmossa
-Klippfrullania
-Lönnlav
-Västlig hakmossa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 51991-2025 artfynd.xlsx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 51991-2025 karta.png", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 51991-2025 FSC-klagomål.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 51991-2025 FSC-klagomål mail.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 51991-2025 tillsynsbegäran.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 51991-2025 tillsynsbegäran mail.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 51991-2025 prioriterade fågelarter.docx", "A 51991-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 37005-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45874.69311342593</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>8</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Spillkråka
@@ -1669,91 +1572,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 37005-2025 artfynd.xlsx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 37005-2025 karta.png", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 37005-2025 FSC-klagomål.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 37005-2025 FSC-klagomål mail.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 37005-2025 tillsynsbegäran.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 37005-2025 tillsynsbegäran mail.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 37005-2025 prioriterade fågelarter.docx", "A 37005-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 40059-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45894.42600694444</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>0.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H12" t="n">
         <v>6</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>7</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1764,91 +1667,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40059-2025 artfynd.xlsx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40059-2025 karta.png", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40059-2025 FSC-klagomål.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40059-2025 FSC-klagomål mail.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40059-2025 tillsynsbegäran.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40059-2025 tillsynsbegäran mail.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40059-2025 prioriterade fågelarter.docx", "A 40059-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 46084-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45924.51282407407</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>4.2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>7</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1859,91 +1762,91 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 46084-2025 artfynd.xlsx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 46084-2025 karta.png", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 46084-2025 FSC-klagomål.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 46084-2025 FSC-klagomål mail.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 46084-2025 tillsynsbegäran.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 46084-2025 tillsynsbegäran mail.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 46084-2025 prioriterade fågelarter.docx", "A 46084-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 24162-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>5.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>6</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blanksvart trämyra
@@ -1953,32 +1856,121 @@
 Revlummer</t>
         </is>
       </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 24162-2025 artfynd.xlsx", "A 24162-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 24162-2025 karta.png", "A 24162-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 24162-2025 FSC-klagomål.docx", "A 24162-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 24162-2025 FSC-klagomål mail.docx", "A 24162-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 24162-2025 tillsynsbegäran.docx", "A 24162-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 24162-2025 tillsynsbegäran mail.docx", "A 24162-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 24162-2025 prioriterade fågelarter.docx", "A 24162-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 8113-2026</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav
+Kattfotslav
+Kornig nållav
+Stor revmossa
+Vågbandad barkbock</t>
+        </is>
+      </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 24162-2025 artfynd.xlsx", "A 24162-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8113-2026 artfynd.xlsx", "A 8113-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 24162-2025 karta.png", "A 24162-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8113-2026 karta.png", "A 8113-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 24162-2025 FSC-klagomål.docx", "A 24162-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8113-2026 FSC-klagomål.docx", "A 8113-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 24162-2025 FSC-klagomål mail.docx", "A 24162-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8113-2026 FSC-klagomål mail.docx", "A 8113-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 24162-2025 tillsynsbegäran.docx", "A 24162-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8113-2026 tillsynsbegäran.docx", "A 8113-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 24162-2025 tillsynsbegäran mail.docx", "A 24162-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 24162-2025 prioriterade fågelarter.docx", "A 24162-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8113-2026 tillsynsbegäran mail.docx", "A 8113-2026")</f>
         <v/>
       </c>
     </row>
@@ -1992,7 +1984,7 @@
         <v>45469</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2084,7 +2076,7 @@
         <v>45350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2169,14 +2161,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 19934-2025</t>
+          <t>A 60293-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45771</v>
+        <v>45994.65568287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,16 +2181,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2213,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2222,6 +2214,98 @@
         <v>4</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Rödvingetrast
+Björksplintborre
+Gulnål</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 19934-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -2229,124 +2313,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 60293-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45994.65568287037</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Rödvingetrast
-Björksplintborre
-Gulnål</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
         <v/>
       </c>
     </row>
@@ -2360,7 +2352,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2444,14 +2436,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1503-2024</t>
+          <t>A 40931-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45306.35041666667</v>
+        <v>45897.64783564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2464,13 +2456,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2499,49 +2491,49 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2270-2025</t>
+          <t>A 1503-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45673.54403935185</v>
+        <v>45306.35041666667</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2554,7 +2546,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -2593,45 +2585,45 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 63569-2023</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45275</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2644,7 +2636,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2653,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2668,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2679,35 +2671,35 @@
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Talltita</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
@@ -2721,7 +2713,7 @@
         <v>45735.6765162037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2804,14 +2796,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 63569-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45275</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2824,16 +2816,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2848,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2859,35 +2851,35 @@
       <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Talltita</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
       <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
         <v/>
       </c>
     </row>
@@ -2901,7 +2893,7 @@
         <v>45751.65315972222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2991,7 +2983,7 @@
         <v>45057</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3081,7 +3073,7 @@
         <v>45662.43456018518</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3171,7 +3163,7 @@
         <v>45713.46528935185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3261,7 +3253,7 @@
         <v>45566.33841435185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3347,7 +3339,7 @@
         <v>44903</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3437,7 +3429,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3515,14 +3507,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3535,7 +3527,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3544,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3559,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3569,49 +3561,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3624,7 +3612,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3658,49 +3646,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3713,7 +3701,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3722,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3737,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3747,45 +3735,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3798,7 +3790,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3807,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3822,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3832,49 +3824,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45469</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3887,7 +3875,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3896,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3911,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3921,45 +3909,49 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45469</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3972,7 +3964,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -4006,31 +3998,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
@@ -4044,7 +4036,7 @@
         <v>45385.53569444444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4129,7 +4121,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4186,7 +4178,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4243,7 +4235,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4300,7 +4292,7 @@
         <v>44273</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4357,7 +4349,7 @@
         <v>44523</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4414,7 +4406,7 @@
         <v>44456</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4471,7 +4463,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4528,7 +4520,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4585,7 +4577,7 @@
         <v>44369</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4642,7 +4634,7 @@
         <v>44515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4699,7 +4691,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4756,7 +4748,7 @@
         <v>44384</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4813,7 +4805,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4870,7 +4862,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4927,7 +4919,7 @@
         <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4984,7 +4976,7 @@
         <v>44443</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5041,7 +5033,7 @@
         <v>44441</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5098,7 +5090,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5155,7 +5147,7 @@
         <v>44468</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5212,7 +5204,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5269,7 +5261,7 @@
         <v>45189.35101851852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5326,7 +5318,7 @@
         <v>44967.53349537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5376,14 +5368,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5396,7 +5388,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5433,14 +5425,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5453,7 +5445,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5497,7 +5489,7 @@
         <v>44949.56182870371</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5547,14 +5539,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45329</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5567,7 +5559,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5604,14 +5596,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5624,7 +5616,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5668,7 +5660,7 @@
         <v>44456</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5718,14 +5710,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5738,7 +5730,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5775,14 +5767,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5795,7 +5787,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5832,14 +5824,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44662</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5852,7 +5844,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5889,14 +5881,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5909,7 +5901,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5946,14 +5938,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45804</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5966,7 +5958,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6003,14 +5995,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45804</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6023,7 +6015,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6060,14 +6052,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6080,7 +6072,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6117,14 +6109,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46062</v>
+        <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6137,7 +6129,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6174,14 +6166,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45804</v>
+        <v>44662</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6194,7 +6186,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6231,14 +6223,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>45804</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6288,14 +6280,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45804</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6308,7 +6300,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6345,14 +6337,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45043</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6365,7 +6357,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6402,14 +6394,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45257</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6422,7 +6414,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6459,14 +6451,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6479,7 +6471,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6516,14 +6508,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45331</v>
+        <v>45043</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6536,7 +6528,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6573,14 +6565,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45257</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6593,7 +6585,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6630,14 +6622,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45331</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6650,7 +6642,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6687,14 +6679,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6707,7 +6699,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6744,14 +6736,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6764,7 +6756,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6801,14 +6793,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6821,7 +6813,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6858,14 +6850,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45222</v>
+        <v>45824.579375</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6878,7 +6870,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6915,14 +6907,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45833</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6935,7 +6927,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6972,14 +6964,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45833</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6992,7 +6984,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7029,14 +7021,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45833</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7049,7 +7041,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7086,14 +7078,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7106,7 +7098,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7143,14 +7135,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45196</v>
+        <v>45833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7163,7 +7155,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7200,14 +7192,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45833</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7220,7 +7212,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>11.3</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7257,14 +7249,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>45833</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7277,7 +7269,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7314,14 +7306,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44963</v>
+        <v>45222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7334,7 +7326,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7371,14 +7363,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44510</v>
+        <v>45924</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7391,7 +7383,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7428,14 +7420,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44523</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7448,7 +7440,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7485,14 +7477,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45924</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7505,7 +7497,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7542,14 +7534,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7562,7 +7554,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7599,14 +7591,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7619,7 +7611,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7656,14 +7648,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>44573</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7676,7 +7668,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7713,14 +7705,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44515</v>
+        <v>44638</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7733,7 +7725,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7770,14 +7762,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>44896</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7790,7 +7782,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7827,14 +7819,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45933</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7847,7 +7839,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7884,14 +7876,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44573</v>
+        <v>45933</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7904,7 +7896,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7941,14 +7933,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44638</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7961,7 +7953,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7998,14 +7990,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44896</v>
+        <v>45196</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8018,7 +8010,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8055,14 +8047,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44308</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8075,7 +8067,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8112,14 +8104,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45933</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8132,7 +8124,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8169,14 +8161,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45933</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8189,7 +8181,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8226,14 +8218,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8246,7 +8238,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8283,14 +8275,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44887</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8303,7 +8295,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>11.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8340,14 +8332,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8360,7 +8352,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8397,14 +8389,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8409,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8454,14 +8446,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8474,7 +8466,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>10.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8511,14 +8503,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44564</v>
+        <v>45712</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8531,7 +8523,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8568,14 +8560,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>44963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8625,14 +8617,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8645,7 +8637,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8682,14 +8674,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>44510</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8702,7 +8694,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8739,14 +8731,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45343</v>
+        <v>44523</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8759,7 +8751,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8796,14 +8788,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45327</v>
+        <v>46062</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8816,7 +8808,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8853,14 +8845,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8910,14 +8902,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8930,7 +8922,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8967,14 +8959,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 8110-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44546</v>
+        <v>46062</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8986,13 +8978,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9029,14 +9016,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9049,7 +9036,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9086,14 +9073,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45091</v>
+        <v>44515</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9106,7 +9093,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9143,14 +9130,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 8112-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45028</v>
+        <v>46062</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9163,7 +9150,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9200,14 +9187,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45325</v>
+        <v>44308</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9220,7 +9207,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9257,14 +9244,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44441</v>
+        <v>45833</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9277,7 +9264,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9314,14 +9301,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9334,7 +9321,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9371,14 +9358,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45054</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9391,7 +9378,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9428,14 +9415,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9448,7 +9435,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9485,14 +9472,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45833</v>
+        <v>44887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9505,7 +9492,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9542,14 +9529,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9562,7 +9549,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9599,14 +9586,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9619,7 +9606,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9656,14 +9643,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9676,7 +9663,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9713,14 +9700,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45559</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9733,7 +9720,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9770,14 +9757,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44973</v>
+        <v>44564</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9790,7 +9777,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9827,14 +9814,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9847,7 +9834,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9884,14 +9871,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44949</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9904,7 +9891,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9941,14 +9928,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9961,7 +9948,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9998,14 +9985,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45343</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10018,7 +10005,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10055,14 +10042,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45327</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10075,7 +10062,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10112,14 +10099,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>44546</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10131,8 +10118,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10169,14 +10161,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45091</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10189,7 +10181,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10226,14 +10218,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10246,7 +10238,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10283,14 +10275,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45325</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10303,7 +10295,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10340,14 +10332,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>44441</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10360,7 +10352,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10397,14 +10389,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45306</v>
+        <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10417,7 +10409,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10454,14 +10446,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45306</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10474,7 +10466,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10511,14 +10503,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45559</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10531,7 +10523,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10568,14 +10560,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>44973</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10588,7 +10580,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>10.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10625,14 +10617,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45712</v>
+        <v>44949</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10645,7 +10637,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10682,14 +10674,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45394</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10702,7 +10694,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10739,14 +10731,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45180</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10759,7 +10751,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10796,14 +10788,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45306</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10816,7 +10808,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10853,14 +10845,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44636</v>
+        <v>45306</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10873,7 +10865,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10910,14 +10902,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44805</v>
+        <v>45394</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10930,7 +10922,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10967,14 +10959,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45180</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10987,7 +10979,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11024,14 +11016,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11044,7 +11036,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11081,14 +11073,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>44636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11101,7 +11093,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11138,14 +11130,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>44805</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11158,7 +11150,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>6.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11195,14 +11187,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44656</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11215,7 +11207,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11252,14 +11244,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11272,7 +11264,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11309,14 +11301,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11329,7 +11321,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11366,14 +11358,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44963</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11386,7 +11378,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11423,14 +11415,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44585</v>
+        <v>44656</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11443,7 +11435,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11480,14 +11472,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11500,7 +11492,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11537,14 +11529,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45329</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11557,7 +11549,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11591,17 +11583,17 @@
       </c>
       <c r="R170" s="2" t="inlineStr"/>
     </row>
-    <row r="171">
+    <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>44963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11614,7 +11606,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11647,6 +11639,120 @@
         <v>0</v>
       </c>
       <c r="R171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>A 3457-2022</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>A 50451-2024</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>45601.44248842593</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z173"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1005,14 +1005,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 36325-2023</t>
+          <t>A 63239-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45152</v>
+        <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1049,118 +1049,15 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Spillkråka
-Talltita
-Vedtrappmossa
-Blomkålssvamp
-Blåmossa
-Grön sköldmossa
-Klippfrullania
-Kornknutmossa
-Sotriska
-Stor revmossa
-Västlig hakmossa
-Kungsfågel
-Vanlig groda
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 36325-2023 artfynd.xlsx", "A 36325-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 36325-2023 karta.png", "A 36325-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 36325-2023 FSC-klagomål.docx", "A 36325-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 36325-2023 FSC-klagomål mail.docx", "A 36325-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 36325-2023 tillsynsbegäran.docx", "A 36325-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 36325-2023 tillsynsbegäran mail.docx", "A 36325-2023")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 36325-2023 prioriterade fågelarter.docx", "A 36325-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 63239-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>46010</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Spillkråka
@@ -1178,91 +1075,91 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63239-2025 artfynd.xlsx", "A 63239-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63239-2025 karta.png", "A 63239-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63239-2025 FSC-klagomål.docx", "A 63239-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63239-2025 FSC-klagomål mail.docx", "A 63239-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63239-2025 tillsynsbegäran.docx", "A 63239-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63239-2025 tillsynsbegäran mail.docx", "A 63239-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63239-2025 prioriterade fågelarter.docx", "A 63239-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 32849-2023</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45124</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C7" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>5.6</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>12</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Spillkråka
@@ -1278,91 +1175,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 32849-2023 artfynd.xlsx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 32849-2023 karta.png", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 32849-2023 FSC-klagomål.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 32849-2023 FSC-klagomål mail.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 32849-2023 tillsynsbegäran.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 32849-2023 tillsynsbegäran mail.docx", "A 32849-2023")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 32849-2023 prioriterade fågelarter.docx", "A 32849-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 22637-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45789</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q8" t="n">
         <v>12</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Ask
@@ -1378,91 +1275,91 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 22637-2025 artfynd.xlsx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 22637-2025 karta.png", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 22637-2025 FSC-klagomål.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 22637-2025 FSC-klagomål mail.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 22637-2025 tillsynsbegäran.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 22637-2025 tillsynsbegäran mail.docx", "A 22637-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 22637-2025 prioriterade fågelarter.docx", "A 22637-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 41294-2024</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45559</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H9" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>10</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1476,91 +1373,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 41294-2024 artfynd.xlsx", "A 41294-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 41294-2024 karta.png", "A 41294-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 41294-2024 FSC-klagomål.docx", "A 41294-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 41294-2024 FSC-klagomål mail.docx", "A 41294-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 41294-2024 tillsynsbegäran.docx", "A 41294-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 41294-2024 tillsynsbegäran mail.docx", "A 41294-2024")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 41294-2024 prioriterade fågelarter.docx", "A 41294-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 37005-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45874.69311342593</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>1.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H10" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q10" t="n">
         <v>8</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Spillkråka
@@ -1572,91 +1469,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 37005-2025 artfynd.xlsx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 37005-2025 karta.png", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 37005-2025 FSC-klagomål.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 37005-2025 FSC-klagomål mail.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 37005-2025 tillsynsbegäran.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 37005-2025 tillsynsbegäran mail.docx", "A 37005-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 37005-2025 prioriterade fågelarter.docx", "A 37005-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 40059-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45894.42600694444</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0.9</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>7</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1667,91 +1564,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40059-2025 artfynd.xlsx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40059-2025 karta.png", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40059-2025 FSC-klagomål.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40059-2025 FSC-klagomål mail.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40059-2025 tillsynsbegäran.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40059-2025 tillsynsbegäran mail.docx", "A 40059-2025")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40059-2025 prioriterade fågelarter.docx", "A 40059-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 46084-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45924.51282407407</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>4.2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I12" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>7</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
@@ -1762,91 +1659,91 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 46084-2025 artfynd.xlsx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 46084-2025 karta.png", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 46084-2025 FSC-klagomål.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 46084-2025 FSC-klagomål mail.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 46084-2025 tillsynsbegäran.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 46084-2025 tillsynsbegäran mail.docx", "A 46084-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 46084-2025 prioriterade fågelarter.docx", "A 46084-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 24162-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45796</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>6</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blanksvart trämyra
@@ -1856,91 +1753,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 24162-2025 artfynd.xlsx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 24162-2025 karta.png", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 24162-2025 FSC-klagomål.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 24162-2025 FSC-klagomål mail.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 24162-2025 tillsynsbegäran.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 24162-2025 tillsynsbegäran mail.docx", "A 24162-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 24162-2025 prioriterade fågelarter.docx", "A 24162-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 8113-2026</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>46062</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Kattfotslav
@@ -1949,28 +1846,120 @@
 Vågbandad barkbock</t>
         </is>
       </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8113-2026 artfynd.xlsx", "A 8113-2026")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8113-2026 karta.png", "A 8113-2026")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8113-2026 FSC-klagomål.docx", "A 8113-2026")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8113-2026 FSC-klagomål mail.docx", "A 8113-2026")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8113-2026 tillsynsbegäran.docx", "A 8113-2026")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8113-2026 tillsynsbegäran mail.docx", "A 8113-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 7903-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Talltita
+Kungsfågel</t>
+        </is>
+      </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8113-2026 artfynd.xlsx", "A 8113-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8113-2026 karta.png", "A 8113-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8113-2026 FSC-klagomål.docx", "A 8113-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8113-2026 FSC-klagomål mail.docx", "A 8113-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8113-2026 tillsynsbegäran.docx", "A 8113-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8113-2026 tillsynsbegäran mail.docx", "A 8113-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
         <v/>
       </c>
     </row>
@@ -1984,7 +1973,7 @@
         <v>45469</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2069,14 +2058,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7903-2024</t>
+          <t>A 60293-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45350</v>
+        <v>45994.65568287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2089,16 +2078,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2113,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2122,98 +2111,6 @@
         <v>4</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Talltita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 60293-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45994.65568287037</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Entita
 Rödvingetrast
@@ -2221,91 +2118,91 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 19934-2025</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45771</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -2313,137 +2210,227 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 63575-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>45275.39715277778</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>1.2</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>3</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
 Talltita</t>
         </is>
       </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63575-2023 artfynd.xlsx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63575-2023 karta.png", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63575-2023 FSC-klagomål.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63575-2023 FSC-klagomål mail.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63575-2023 tillsynsbegäran.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63575-2023 tillsynsbegäran mail.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63575-2023 prioriterade fågelarter.docx", "A 63575-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 40931-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45897.64783564815</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63575-2023 artfynd.xlsx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63575-2023 karta.png", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63575-2023 FSC-klagomål.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63575-2023 FSC-klagomål mail.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63575-2023 tillsynsbegäran.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63575-2023 tillsynsbegäran mail.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63575-2023 prioriterade fågelarter.docx", "A 63575-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 1503-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45306.35041666667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,13 +2443,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2491,49 +2478,49 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 1503-2024</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45306.35041666667</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2533,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -2585,45 +2572,45 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2270-2025</t>
+          <t>A 13380-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45673.54403935185</v>
+        <v>45735.6765162037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2636,7 +2623,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2645,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2660,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2670,500 +2657,500 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 63569-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 63569-2023</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45275</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
       <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 8955-2025</t>
+          <t>A 42660-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45713.46528935185</v>
+        <v>45566.33841435185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,7 +3163,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -3185,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -3200,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3210,50 +3197,46 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
+          <t>Mattlummer
 Revlummer</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42660-2024</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45566.33841435185</v>
+        <v>44903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3266,16 +3249,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3290,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3300,46 +3283,50 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer
-Revlummer</t>
+          <t>Spillkråka
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44903</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3352,84 +3339,79 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>1</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3442,13 +3424,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3476,45 +3458,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3527,7 +3509,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3536,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3551,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3561,45 +3543,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3612,7 +3598,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3646,49 +3632,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3687,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3710,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3725,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3735,49 +3721,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3790,7 +3772,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3799,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3814,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3824,45 +3806,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45469</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3875,7 +3861,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3884,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3899,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3909,49 +3895,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45469</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,7 +3946,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3998,45 +3980,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 21281-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4049,10 +4031,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4079,49 +4061,21 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
-        <v/>
-      </c>
-      <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
-        <v/>
-      </c>
-      <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
-        <v/>
-      </c>
-      <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
-        <v/>
-      </c>
-      <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
-        <v/>
-      </c>
-      <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 21281-2021</t>
+          <t>A 14517-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44320.61850694445</v>
+        <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4134,7 +4088,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4171,14 +4125,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14517-2021</t>
+          <t>A 62855-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44279.64517361111</v>
+        <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4191,7 +4145,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4228,14 +4182,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62855-2021</t>
+          <t>A 13462-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44504.58171296296</v>
+        <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4248,7 +4202,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4285,14 +4239,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 13462-2021</t>
+          <t>A 67165-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44273</v>
+        <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4305,7 +4259,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4342,14 +4296,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 67165-2021</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44523</v>
+        <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4362,7 +4316,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4399,14 +4353,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 36394-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44456</v>
+        <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4419,7 +4373,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4456,14 +4410,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 36394-2021</t>
+          <t>A 3179-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44389</v>
+        <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4476,7 +4430,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4513,14 +4467,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3179-2022</t>
+          <t>A 31568-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44582.61788194445</v>
+        <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4533,7 +4487,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4570,14 +4524,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31568-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44369</v>
+        <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4590,7 +4544,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4627,14 +4581,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 22138-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44515</v>
+        <v>44324.67472222223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4647,7 +4601,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4684,14 +4638,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22138-2021</t>
+          <t>A 35148-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44324.67472222223</v>
+        <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4658,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4741,14 +4695,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35148-2021</t>
+          <t>A 66893-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44384</v>
+        <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4761,7 +4715,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4798,14 +4752,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 66893-2021</t>
+          <t>A 15508-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44522.49439814815</v>
+        <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4818,7 +4772,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4855,14 +4809,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15508-2022</t>
+          <t>A 31566-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44662.39761574074</v>
+        <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4875,7 +4829,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4912,14 +4866,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31566-2021</t>
+          <t>A 46391-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44369</v>
+        <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4932,7 +4886,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4969,14 +4923,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46391-2021</t>
+          <t>A 45986-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44443</v>
+        <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4989,7 +4943,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5026,14 +4980,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45986-2021</t>
+          <t>A 14751-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44441</v>
+        <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5046,7 +5000,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5083,14 +5037,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14751-2022</t>
+          <t>A 53144-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44656.3837037037</v>
+        <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5103,7 +5057,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5140,14 +5094,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53144-2021</t>
+          <t>A 20285-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44468</v>
+        <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5160,7 +5114,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5197,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20285-2022</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44698.76347222222</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5217,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5254,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5274,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5311,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>44456</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5331,7 +5285,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5375,7 +5329,7 @@
         <v>45307.6205787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5425,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45329</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5482,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5502,7 +5456,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5539,14 +5493,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45329</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5559,7 +5513,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5596,14 +5550,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5616,7 +5570,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5653,14 +5607,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44456</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5673,7 +5627,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5710,14 +5664,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5730,7 +5684,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5767,14 +5721,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5787,7 +5741,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5824,14 +5778,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5844,7 +5798,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5881,14 +5835,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45804</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5901,7 +5855,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5938,14 +5892,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45804</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5958,7 +5912,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6002,7 +5956,7 @@
         <v>45308.50962962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6059,7 +6013,7 @@
         <v>44827.46658564815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6109,14 +6063,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45804</v>
+        <v>44662</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6129,7 +6083,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6166,14 +6120,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44662</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6186,7 +6140,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6223,14 +6177,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45804</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6243,7 +6197,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6280,14 +6234,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45804</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6300,7 +6254,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6337,14 +6291,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>45043</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6357,7 +6311,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6394,14 +6348,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6414,7 +6368,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6451,14 +6405,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>45257</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6471,7 +6425,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6508,14 +6462,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45043</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6528,7 +6482,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6565,14 +6519,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45257</v>
+        <v>45331</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6585,7 +6539,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6622,14 +6576,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45331</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6642,7 +6596,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6679,14 +6633,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45824.579375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6699,7 +6653,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6736,14 +6690,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6756,7 +6710,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6793,14 +6747,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45924</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6813,7 +6767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6850,14 +6804,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6870,7 +6824,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6907,14 +6861,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6927,7 +6881,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6964,14 +6918,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6984,7 +6938,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7021,14 +6975,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7041,7 +6995,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7078,14 +7032,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45833</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7098,7 +7052,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7135,14 +7089,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45833</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7155,7 +7109,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7192,14 +7146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45833</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7212,7 +7166,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7249,14 +7203,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>45833</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7269,7 +7223,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7306,14 +7260,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45222</v>
+        <v>45833</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7326,7 +7280,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7363,14 +7317,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45924</v>
+        <v>45222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7383,7 +7337,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7420,14 +7374,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7440,7 +7394,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7477,14 +7431,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>44573</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7497,7 +7451,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7534,14 +7488,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>44638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7591,14 +7545,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>44896</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7611,7 +7565,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7648,14 +7602,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44573</v>
+        <v>45933</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7668,7 +7622,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7705,14 +7659,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44638</v>
+        <v>45933</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7725,7 +7679,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7762,14 +7716,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44896</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7782,7 +7736,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7819,14 +7773,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45933</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7839,7 +7793,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7876,14 +7830,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45933</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7896,7 +7850,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>12</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7933,14 +7887,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45196</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7953,7 +7907,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7990,14 +7944,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45196</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8010,7 +7964,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8047,14 +8001,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8067,7 +8021,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8104,14 +8058,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8124,7 +8078,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8161,14 +8115,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8181,7 +8135,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8218,14 +8172,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8238,7 +8192,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8275,14 +8229,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>44963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8295,7 +8249,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>11.3</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8332,14 +8286,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8352,7 +8306,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8389,14 +8343,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8409,7 +8363,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8446,14 +8400,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44510</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8466,7 +8420,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>10.6</v>
+        <v>5.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8503,14 +8457,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45712</v>
+        <v>44523</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8523,7 +8477,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8560,14 +8514,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44963</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8580,7 +8534,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8617,14 +8571,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8637,7 +8591,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8674,14 +8628,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44510</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8694,7 +8648,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8731,14 +8685,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44523</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8751,7 +8705,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8788,14 +8742,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46062</v>
+        <v>44515</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8808,7 +8762,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8845,14 +8799,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>44308</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8865,7 +8819,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8902,14 +8856,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8922,7 +8876,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8959,14 +8913,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8110-2026</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46062</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8979,7 +8933,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9016,14 +8970,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9036,7 +8990,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9073,14 +9027,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44515</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9093,7 +9047,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9130,14 +9084,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8112-2026</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46062</v>
+        <v>44887</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9150,7 +9104,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9187,14 +9141,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44308</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9207,7 +9161,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9244,14 +9198,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45833</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9264,7 +9218,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9301,14 +9255,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9321,7 +9275,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9358,14 +9312,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>44564</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9378,7 +9332,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9415,14 +9369,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9435,7 +9389,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9472,14 +9426,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44887</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9492,7 +9446,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9529,14 +9483,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45343</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9549,7 +9503,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9586,14 +9540,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45327</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9606,7 +9560,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9643,14 +9597,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9663,7 +9617,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9700,14 +9654,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9720,7 +9674,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9757,14 +9711,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44564</v>
+        <v>45712</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9777,7 +9731,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9814,14 +9768,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9834,7 +9788,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9871,14 +9825,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>44546</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9890,8 +9844,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9928,14 +9887,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>45091</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9948,7 +9907,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9985,14 +9944,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45343</v>
+        <v>46062</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10005,7 +9964,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.7</v>
+        <v>0.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10042,14 +10001,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 8110-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45327</v>
+        <v>46062</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10062,7 +10021,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10099,14 +10058,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44546</v>
+        <v>45028</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10118,13 +10077,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10161,14 +10115,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 8112-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45091</v>
+        <v>46062</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10181,7 +10135,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10218,14 +10172,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45028</v>
+        <v>45325</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10238,7 +10192,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10275,14 +10229,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45325</v>
+        <v>44441</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10295,7 +10249,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10332,14 +10286,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44441</v>
+        <v>45054</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10352,7 +10306,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10389,14 +10343,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45054</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10409,7 +10363,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10446,14 +10400,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45559</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10466,7 +10420,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10503,14 +10457,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45559</v>
+        <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10523,7 +10477,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10560,14 +10514,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44973</v>
+        <v>44949</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10580,7 +10534,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10617,14 +10571,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44949</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10637,7 +10591,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10674,14 +10628,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10694,7 +10648,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10731,14 +10685,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45306</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10751,7 +10705,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10788,14 +10742,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>45306</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10808,7 +10762,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10845,14 +10799,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45306</v>
+        <v>45394</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10865,7 +10819,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10902,14 +10856,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45394</v>
+        <v>45180</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10922,7 +10876,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10959,14 +10913,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45180</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10979,7 +10933,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11016,14 +10970,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>44636</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11036,7 +10990,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11073,14 +11027,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44636</v>
+        <v>44805</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11093,7 +11047,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11130,14 +11084,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44805</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11150,7 +11104,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11187,14 +11141,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11207,7 +11161,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11244,14 +11198,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11264,7 +11218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11301,14 +11255,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11321,7 +11275,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11358,14 +11312,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>44656</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11378,7 +11332,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11415,14 +11369,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44656</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11435,7 +11389,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11472,14 +11426,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11492,7 +11446,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11529,14 +11483,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>44963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11549,7 +11503,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11586,14 +11540,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44963</v>
+        <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11606,7 +11560,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11640,17 +11594,17 @@
       </c>
       <c r="R171" s="2" t="inlineStr"/>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44585</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11663,7 +11617,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11696,63 +11650,6 @@
         <v>0</v>
       </c>
       <c r="R172" s="2" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>A 50451-2024</t>
-        </is>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>45601.44248842593</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0</v>
-      </c>
-      <c r="R173" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1874,14 +1874,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7903-2024</t>
+          <t>A 26491-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45350</v>
+        <v>45469</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1927,6 +1927,98 @@
         <v>4</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Gulpudrad spiklav
+Rostfläck
+Sotlav</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 7903-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
@@ -1934,124 +2026,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 26491-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Gulpudrad spiklav
-Rostfläck
-Sotlav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
         <v/>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45771</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 42660-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45566.33841435185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,16 +2353,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2387,932 +2387,932 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 58954-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44903</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 40931-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45897.64783564815</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 1503-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45306.35041666667</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H21" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 2270-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45673.54403935185</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 1503-2024</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45306.35041666667</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 13380-2025</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>45735.6765162037</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C25" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>1.8</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 63569-2023</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>45275</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C30" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>2.4</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
         <v/>
       </c>
-      <c r="Z24">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 8955-2025</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45713.46528935185</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 42660-2024</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45566.33841435185</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 58954-2022</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>44903</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3404,14 +3404,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3458,31 +3458,35 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
@@ -3496,7 +3500,7 @@
         <v>45737.63446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3578,14 +3582,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3598,7 +3602,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3607,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3622,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3632,35 +3636,31 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
         <v>46007.6247337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3752,14 +3752,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45469</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3806,49 +3806,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45469</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,7 +3857,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3870,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3885,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3895,31 +3891,35 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z37">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>45385.53569444444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4524,14 +4524,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 22138-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44515</v>
+        <v>44324.67472222223</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22138-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44324.67472222223</v>
+        <v>44515</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44456</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5322,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45329</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>44896</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44573</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>44638</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5721,14 +5721,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45933</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45804</v>
+        <v>45933</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45804</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45804</v>
+        <v>44805</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44662</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>44441</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>44963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45329</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45043</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45257</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45331</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45924</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>45804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45804</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6918,14 +6918,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45804</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6975,14 +6975,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45833</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7089,14 +7089,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45924</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45833</v>
+        <v>45331</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45833</v>
+        <v>45043</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45222</v>
+        <v>45257</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44573</v>
+        <v>45824.579375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44638</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7545,14 +7545,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44896</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7602,14 +7602,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45933</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7659,14 +7659,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45933</v>
+        <v>45833</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7716,14 +7716,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45833</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7773,14 +7773,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45833</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7830,14 +7830,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>12</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7887,14 +7887,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45196</v>
+        <v>45091</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7944,14 +7944,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45833</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8001,14 +8001,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8058,14 +8058,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>10.6</v>
+        <v>0.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8115,14 +8115,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>11.3</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8172,14 +8172,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45833</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8229,14 +8229,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44963</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8286,14 +8286,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8343,14 +8343,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>44456</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8400,14 +8400,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44510</v>
+        <v>44564</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8457,14 +8457,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44523</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8514,14 +8514,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8571,14 +8571,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8628,14 +8628,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8685,14 +8685,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8742,14 +8742,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44515</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8799,14 +8799,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44308</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8856,14 +8856,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>44308</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8913,14 +8913,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8970,14 +8970,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9027,14 +9027,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9084,14 +9084,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44887</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9141,14 +9141,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9198,14 +9198,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45712</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9255,14 +9255,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>7.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9312,14 +9312,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44564</v>
+        <v>46062</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.8</v>
+        <v>0.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9369,14 +9369,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>44973</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>10.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9426,14 +9426,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 8110-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>46062</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9483,14 +9483,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45343</v>
+        <v>44887</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9503,7 +9503,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9540,14 +9540,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 8112-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45327</v>
+        <v>46062</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9597,14 +9597,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45180</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9654,14 +9654,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>44523</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9711,14 +9711,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45712</v>
+        <v>45028</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9768,14 +9768,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9825,14 +9825,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44546</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9844,13 +9844,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9887,14 +9882,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45091</v>
+        <v>45394</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9907,7 +9902,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9944,14 +9939,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 9783-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46062</v>
+        <v>46072.58835648148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9964,7 +9959,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10001,14 +9996,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8110-2026</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46062</v>
+        <v>45196</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10021,7 +10016,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10058,14 +10053,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45028</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10078,7 +10073,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10115,14 +10110,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8112-2026</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46062</v>
+        <v>44656</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10135,7 +10130,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10172,14 +10167,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45325</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10192,7 +10187,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10229,14 +10224,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44441</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10249,7 +10244,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10286,14 +10281,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45054</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10306,7 +10301,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10343,14 +10338,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10363,7 +10358,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10400,14 +10395,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45559</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10420,7 +10415,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10457,14 +10452,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44973</v>
+        <v>45327</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10477,7 +10472,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>10.5</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10514,14 +10509,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44949</v>
+        <v>44546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10533,8 +10528,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45306</v>
+        <v>45343</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10742,14 +10742,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45306</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10799,14 +10799,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45394</v>
+        <v>45559</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10856,14 +10856,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45180</v>
+        <v>44662</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10913,14 +10913,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>44949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10970,14 +10970,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44636</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.2</v>
+        <v>11.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11027,14 +11027,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44805</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11084,14 +11084,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11141,14 +11141,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11198,14 +11198,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>44636</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11255,14 +11255,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>44585</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44656</v>
+        <v>44963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45325</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44963</v>
+        <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44585</v>
+        <v>45306</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11594,17 +11594,17 @@
       </c>
       <c r="R171" s="2" t="inlineStr"/>
     </row>
-    <row r="172">
+    <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11650,6 +11650,63 @@
         <v>0</v>
       </c>
       <c r="R172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>A 64199-2021</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>44510</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45469</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45350</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2058,14 +2058,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 60293-2025</t>
+          <t>A 19934-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45994.65568287037</v>
+        <v>45771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2111,6 +2111,98 @@
         <v>4</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 60293-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45994.65568287037</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Entita
 Rödvingetrast
@@ -2118,124 +2210,32 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
         <v/>
       </c>
-      <c r="Z17">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 19934-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 42660-2024</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45566.33841435185</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2387,946 +2387,946 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 63569-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 13380-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45735.6765162037</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 40931-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45897.64783564815</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 42660-2024</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45566.33841435185</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 58954-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>44903</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C29" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>2.3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 40931-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45897.64783564815</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H22" t="n">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 1503-2024</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45306.35041666667</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 1503-2024</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45306.35041666667</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S24">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
-      <c r="Z24">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 8955-2025</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45713.46528935185</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 63569-2023</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45275</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,17 +3339,17 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3373,31 +3373,35 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z31">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
@@ -3411,7 +3415,7 @@
         <v>45930.56170138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3493,14 +3497,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3513,7 +3517,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3522,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3537,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3547,49 +3551,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3636,45 +3636,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3721,31 +3721,35 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
@@ -3759,7 +3763,7 @@
         <v>45469</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3837,14 +3841,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3857,7 +3861,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3866,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3881,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3891,49 +3895,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3946,13 +3946,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3980,31 +3980,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4524,14 +4524,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22138-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44324.67472222223</v>
+        <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 22138-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44515</v>
+        <v>44324.67472222223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44896</v>
+        <v>44662</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44573</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44638</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45933</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45933</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44805</v>
+        <v>44456</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45331</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44441</v>
+        <v>45824.579375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44963</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45329</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>45833</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45833</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45222</v>
+        <v>45833</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45924</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45804</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804</v>
+        <v>44963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6918,14 +6918,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45804</v>
+        <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6975,14 +6975,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7032,14 +7032,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7089,14 +7089,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45924</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>44573</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45331</v>
+        <v>44638</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45043</v>
+        <v>44896</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45257</v>
+        <v>44523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45933</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45933</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7545,14 +7545,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7602,14 +7602,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>44515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7659,14 +7659,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45833</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7679,7 +7679,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7716,14 +7716,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45833</v>
+        <v>44308</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7773,14 +7773,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45833</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7830,14 +7830,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7887,14 +7887,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45091</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.6</v>
+        <v>10.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7944,14 +7944,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45833</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8001,14 +8001,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>44887</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8058,14 +8058,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8115,14 +8115,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8172,14 +8172,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>44564</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>6.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8229,14 +8229,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8286,14 +8286,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8343,14 +8343,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44456</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8400,14 +8400,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44564</v>
+        <v>45343</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8457,14 +8457,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45327</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8514,14 +8514,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>44546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8533,8 +8533,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8571,14 +8576,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8591,7 +8596,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8628,14 +8633,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45833</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8648,7 +8653,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8685,14 +8690,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8705,7 +8710,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8742,14 +8747,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45091</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8762,7 +8767,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8799,14 +8804,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8819,7 +8824,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8856,14 +8861,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44308</v>
+        <v>45028</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8876,7 +8881,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8913,14 +8918,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45306</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8933,7 +8938,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8970,14 +8975,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8990,7 +8995,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9027,14 +9032,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45325</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9047,7 +9052,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9084,14 +9089,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>44441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9104,7 +9109,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9141,14 +9146,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9161,7 +9166,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9198,14 +9203,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45712</v>
+        <v>45054</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9218,7 +9223,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9255,14 +9260,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9275,7 +9280,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9312,14 +9317,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46062</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9332,7 +9337,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9369,14 +9374,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44973</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9389,7 +9394,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>10.5</v>
+        <v>2.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9426,14 +9431,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8110-2026</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46062</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9446,7 +9451,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9483,14 +9488,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44887</v>
+        <v>45559</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9503,7 +9508,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9540,14 +9545,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8112-2026</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46062</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9560,7 +9565,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9597,14 +9602,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45180</v>
+        <v>44973</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9617,7 +9622,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9654,14 +9659,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44523</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9674,7 +9679,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9711,14 +9716,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45028</v>
+        <v>45712</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9731,7 +9736,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9768,14 +9773,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9788,7 +9793,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9825,14 +9830,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>44949</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9845,7 +9850,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9882,14 +9887,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45394</v>
+        <v>46062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9902,7 +9907,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9939,14 +9944,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 9783-2026</t>
+          <t>A 8110-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46072.58835648148</v>
+        <v>46062</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9959,7 +9964,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9996,14 +10001,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 8112-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45196</v>
+        <v>46062</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10016,7 +10021,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10053,14 +10058,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10073,7 +10078,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.1</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10110,14 +10115,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44656</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10130,7 +10135,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10167,14 +10172,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45306</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10187,7 +10192,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10224,14 +10229,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45306</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10244,7 +10249,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10281,14 +10286,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10301,7 +10306,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10338,14 +10343,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 9783-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>46072.58835648148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10358,7 +10363,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10395,14 +10400,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>45394</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10415,7 +10420,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10452,14 +10457,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45327</v>
+        <v>45180</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10472,7 +10477,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10509,14 +10514,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44546</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10528,13 +10533,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>44636</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>44805</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45343</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10742,14 +10742,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10799,14 +10799,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45559</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10856,14 +10856,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44662</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10913,14 +10913,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44949</v>
+        <v>44656</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10970,14 +10970,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11027,14 +11027,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11084,14 +11084,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11141,14 +11141,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44515</v>
+        <v>44585</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11198,14 +11198,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44636</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11255,14 +11255,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44585</v>
+        <v>45329</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44963</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45325</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45804</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45054</v>
+        <v>45804</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45306</v>
+        <v>45804</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45043</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44510</v>
+        <v>45257</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45469</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45350</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45673.54403935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45275</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45735.6765162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45897.64783564815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45751.65315972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45662.43456018518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45713.46528935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>45566.33841435185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44903</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45306.35041666667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45737.63446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45930.56170138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45985.57564814815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>46007.6247337963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45728.95387731482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45469</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45385.53569444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45189.35101851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44967.53349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45307.6205787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45523.79202546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44949.56182870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44827.46658564815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44662</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45308.50962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45230.33737268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44475.53733796296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45603.5830787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44480.57173611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44727.59578703704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44456</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45331</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45123.46649305556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45824.579375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45735.67928240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45894.44685185186</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45737.63481481482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45833</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45833</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45833</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45736.32780092592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45091.50479166667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44351.36537037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45924</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45924.90386574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45931.44649305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45931.4480787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>45931.63186342592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>44573</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44638</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44896</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45933</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45933</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45943.63476851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44585.72818287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45947.31263888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44308</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45952.56412037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45954.37650462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45954.34305555555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45755.58891203703</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>44887</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45753.53189814815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45535.69445601852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44564</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45747.81394675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45350.40921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45978.57502314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>45343</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45327</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45985.57778935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45833</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45989.49545138889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45091</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>46036.74319444445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45028</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45994.64711805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>46041.5952662037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45325</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>46002.6478587963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45054</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>46002.60298611111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>46003.3241087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>46008.66553240741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44858.47591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45559</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45713.46825231481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44973</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>46056.4970949074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45712</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>46058.64341435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44949</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>46062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>46062</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>46062</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44802.57002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45394.58491898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45306</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45306</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>46031.50569444444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>46072.58835648148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45394</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45180</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45518.59173611111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44636</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44805</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44949.54909722223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45744.61255787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45596.66880787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45524.38400462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44656</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>44827.4609837963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45328.43502314815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44585</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45601.44248842593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45329</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45790.48229166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45540.72516203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45804</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45804</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45804</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45043</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45257</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45469</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>45350</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>45771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>45673.54403935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45275</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45735.6765162037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>45897.64783564815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         <v>45751.65315972222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>45057</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45662.43456018518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45713.46528935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>45566.33841435185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44903</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45306.35041666667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>45737.63446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45930.56170138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>45985.57564814815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>46007.6247337963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>45728.95387731482</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45469</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45385.53569444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45810.42446759259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45189.35101851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44967.53349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45307.6205787037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45523.79202546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44949.56182870371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44827.46658564815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44662</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45308.50962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45230.33737268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>44475.53733796296</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45603.5830787037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>44480.57173611111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44727.59578703704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44456</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45331</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45123.46649305556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45824.579375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45735.67928240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45894.44685185186</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45737.63481481482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45833</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>45833</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>45833</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45736.32780092592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45091.50479166667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>44351.36537037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>45924</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>45924.90386574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>44963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44510</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45931.44649305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>45931.4480787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>45931.63186342592</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>44573</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>44638</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44896</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>44523</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>45933</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>45933</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>45943.63476851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>44585.72818287037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44515</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>45947.31263888889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44308</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>45952.56412037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>45954.37650462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>45954.34305555555</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>45755.58891203703</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>44887</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>45753.53189814815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45535.69445601852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>44564</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45747.81394675926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>45350.40921296296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>45978.57502314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>45343</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45327</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44546</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45985.57778935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>45833</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45989.49545138889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45091</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>46036.74319444445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>45028</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>45994.64711805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>46041.5952662037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45325</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>46002.6478587963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45054</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>46002.60298611111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>46003.3241087963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>46008.66553240741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44858.47591435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45559</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>45713.46825231481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44973</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>46056.4970949074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45712</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>46058.64341435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44949</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>46062</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
         <v>46062</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>46062</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10065,7 +10065,7 @@
         <v>44802.57002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>45394.58491898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
         <v>45306</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         <v>45306</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>46031.50569444444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>46072.58835648148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>45394</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>45180</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45518.59173611111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>44636</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>44805</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44949.54909722223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45744.61255787037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45596.66880787037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45524.38400462963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>44656</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>44827.4609837963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45328.43502314815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>44963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44585</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45601.44248842593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45329</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>45790.48229166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>45540.72516203704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>45804</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>45804</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45804</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45043</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45257</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>45469</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1966,14 +1966,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7903-2024</t>
+          <t>A 19934-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45350</v>
+        <v>45771</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,16 +1986,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2019,6 +2019,98 @@
         <v>4</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 7903-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
@@ -2026,124 +2118,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 19934-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
         <v/>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
         <v>45994.65568287037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 2270-2025</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45673.54403935185</v>
+        <v>44903</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -2388,35 +2388,35 @@
       <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Revlummer</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
         <v>45275</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2513,14 +2513,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 13380-2025</t>
+          <t>A 40931-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45735.6765162037</v>
+        <v>45897.64783564815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2533,16 +2533,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2567,766 +2567,766 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 42660-2024</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45566.33841435185</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 2270-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45673.54403935185</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 1503-2024</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45306.35041666667</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 13380-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45735.6765162037</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Spillkråka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 40931-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45897.64783564815</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H23" t="n">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 380-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45662.43456018518</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S26">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 8955-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45713.46528935185</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 42660-2024</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45566.33841435185</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 58954-2022</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44903</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 1503-2024</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45306.35041666667</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3373,49 +3373,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3428,7 +3424,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3466,45 +3462,45 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3517,7 +3513,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3551,45 +3547,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3598,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3611,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3626,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3636,45 +3632,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3721,49 +3721,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45469</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3772,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3810,45 +3806,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,13 +3857,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3895,45 +3891,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3946,17 +3942,17 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -3970,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3980,31 +3976,35 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44805</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>6.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44662</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>44564</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>44308</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>45306</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44456</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45331</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45091</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45222</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45394</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>44441</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45196</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45833</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45833</v>
+        <v>44963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45833</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>44887</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45196</v>
+        <v>44656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>11.3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45924</v>
+        <v>45180</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44963</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6918,14 +6918,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44510</v>
+        <v>44523</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6975,14 +6975,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45028</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7089,14 +7089,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45222</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44573</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44638</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44896</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44523</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45933</v>
+        <v>45327</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45933</v>
+        <v>45343</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>44546</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7507,8 +7507,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7545,14 +7550,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7565,7 +7570,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7602,14 +7607,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44515</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7622,7 +7627,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7659,14 +7664,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7679,7 +7684,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>12</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7716,14 +7721,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44308</v>
+        <v>45559</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7736,7 +7741,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7773,14 +7778,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>44662</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7793,7 +7798,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7830,14 +7835,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7850,7 +7855,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7887,14 +7892,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44949</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7907,7 +7912,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>10.6</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7944,14 +7949,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7964,7 +7969,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>11.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8001,14 +8006,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44887</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8021,7 +8026,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8058,14 +8063,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8078,7 +8083,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8115,14 +8120,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8135,7 +8140,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8172,14 +8177,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44564</v>
+        <v>44515</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8192,7 +8197,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8229,14 +8234,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>44636</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8249,7 +8254,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8286,14 +8291,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>44585</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8306,7 +8311,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8343,14 +8348,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45924</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8363,7 +8368,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8400,14 +8405,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45343</v>
+        <v>44963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8420,7 +8425,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8457,14 +8462,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45327</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8477,7 +8482,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8514,14 +8519,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44546</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8533,13 +8538,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8576,14 +8576,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8633,14 +8633,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45833</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8690,14 +8690,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>44896</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45091</v>
+        <v>44573</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>44638</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8861,14 +8861,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45028</v>
+        <v>45933</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8918,14 +8918,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45933</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8975,14 +8975,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         <v>45325</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9089,14 +9089,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44441</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9146,14 +9146,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.9</v>
+        <v>12</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>45054</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9260,14 +9260,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.1</v>
+        <v>10.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45306</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45559</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>44510</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44973</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.5</v>
+        <v>5.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45712</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45833</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44949</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46062</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8110-2026</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46062</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8112-2026</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46062</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45329</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45306</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45306</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10286,14 +10286,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10343,14 +10343,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 9783-2026</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46072.58835648148</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10400,14 +10400,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45394</v>
+        <v>45804</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10457,14 +10457,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45180</v>
+        <v>45804</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10514,14 +10514,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45804</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44636</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44805</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10742,14 +10742,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>45712</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10799,14 +10799,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>45331</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10856,14 +10856,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>45043</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10913,14 +10913,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44656</v>
+        <v>45257</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10970,14 +10970,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11027,14 +11027,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45824.579375</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11084,14 +11084,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44963</v>
+        <v>46062</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11141,14 +11141,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44585</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11198,14 +11198,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11255,14 +11255,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 8110-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45329</v>
+        <v>46062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 8112-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>46062</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45833</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45804</v>
+        <v>45833</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45804</v>
+        <v>45833</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 9783-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45804</v>
+        <v>46072.58835648148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45043</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45257</v>
+        <v>44456</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z173"/>
+  <dimension ref="A1:Z174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1874,14 +1874,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 26491-2024</t>
+          <t>A 7903-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45469</v>
+        <v>45350</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,17 +1894,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1927,6 +1927,98 @@
         <v>4</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Talltita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 26491-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45469</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Duvhök
 Gulpudrad spiklav
@@ -1934,91 +2026,183 @@
 Sotlav</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 60293-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45994.65568287037</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Rödvingetrast
+Björksplintborre
+Gulnål</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 19934-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45771</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C18" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -2026,216 +2210,32 @@
 Vågbandad barkbock</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 7903-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45350</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Talltita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 60293-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45994.65568287037</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Rödvingetrast
-Björksplintborre
-Gulnål</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58954-2022</t>
+          <t>A 40931-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44903</v>
+        <v>45897.64783564815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2388,49 +2388,49 @@
       <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 63569-2023</t>
+          <t>A 1503-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45275</v>
+        <v>45306.35041666667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2478,49 +2478,49 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Talltita</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 2270-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>45673.54403935185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2533,13 +2533,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -2568,49 +2568,49 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Revlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42660-2024</t>
+          <t>A 63569-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45566.33841435185</v>
+        <v>45275</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2657,586 +2657,586 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 13380-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45735.6765162037</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 16534-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45751.65315972222</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 20586-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+      <c r="Z26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 380-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45662.43456018518</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 8955-2025</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45713.46528935185</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 42660-2024</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45566.33841435185</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 8955-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45713.46528935185</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 1503-2024</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45306.35041666667</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 16534-2025</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45751.65315972222</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 20586-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45057</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 380-2025</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45662.43456018518</v>
+        <v>44903</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -3284,49 +3284,49 @@
       <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45469</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3373,45 +3373,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3462,45 +3462,45 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3547,45 +3547,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3598,7 +3602,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3607,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3622,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3632,49 +3636,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3721,45 +3721,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3806,45 +3806,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45469</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3857,13 +3861,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3891,45 +3895,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3942,7 +3946,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3951,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3966,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3976,35 +3980,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44324.67472222223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44522.49439814815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>44662.39761574074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14493-2024</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45394.58491898148</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>44573</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24642-2022</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44727.59578703704</v>
+        <v>44638</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 36763-2022</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44805</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.1</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>44896</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35959-2022</t>
+          <t>A 49955-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44802.57002314815</v>
+        <v>44456</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44564</v>
+        <v>45933</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>45933</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 3418-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44308</v>
+        <v>44949.56182870371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1687-2024</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45306</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>45329</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49680-2024</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45596.66880787037</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45091</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6063,14 +6063,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41598-2022</t>
+          <t>A 1960-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44827.4609837963</v>
+        <v>45308.50962962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14458-2024</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45394</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44441</v>
+        <v>44662</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45196</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4642-2024</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45328.43502314815</v>
+        <v>45804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44963</v>
+        <v>45804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6462,14 +6462,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 3407-2023</t>
+          <t>A 55405-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44949.54909722223</v>
+        <v>44475.53733796296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7807-2023</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44973</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10.5</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44887</v>
+        <v>45804</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14731-2022</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44656</v>
+        <v>45924</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42446-2023</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45180</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15241-2025</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45744.61255787037</v>
+        <v>45043</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45257</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6918,14 +6918,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 24642-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44523</v>
+        <v>44727.59578703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6975,14 +6975,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45028</v>
+        <v>45331</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7089,14 +7089,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45222</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 33237-2024</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45518.59173611111</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>45824.579375</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45327</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45343</v>
+        <v>45222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44546</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7507,13 +7507,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7550,14 +7545,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>45833</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7570,7 +7565,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7607,14 +7602,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34153-2024</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45524.38400462963</v>
+        <v>45833</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7627,7 +7622,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7664,14 +7659,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45833</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7684,7 +7679,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7721,14 +7716,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45559</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7741,7 +7736,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7778,14 +7773,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44662</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7798,7 +7793,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7835,14 +7830,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55405-2021</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44475.53733796296</v>
+        <v>45196</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7855,7 +7850,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7892,14 +7887,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3413-2023</t>
+          <t>A 27314-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44949</v>
+        <v>44351.36537037037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7912,7 +7907,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>11.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7949,14 +7944,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7969,7 +7964,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>11.3</v>
+        <v>5.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8006,14 +8001,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>44963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8026,7 +8021,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8063,14 +8058,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8083,7 +8078,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8120,14 +8115,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44510</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8140,7 +8135,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8177,14 +8172,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44515</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8197,7 +8192,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>10.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8234,14 +8229,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12055-2022</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44636</v>
+        <v>44523</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8254,7 +8249,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8291,14 +8286,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3457-2022</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44585</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8311,7 +8306,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8348,14 +8343,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 65226-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45924</v>
+        <v>44515</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8368,7 +8363,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8405,14 +8400,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5916-2023</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44963</v>
+        <v>44308</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8425,7 +8420,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8462,14 +8457,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8482,7 +8477,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>5.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8519,14 +8514,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8539,7 +8534,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8576,14 +8571,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>44887</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8596,7 +8591,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8633,14 +8628,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8653,7 +8648,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8690,14 +8685,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44896</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8710,7 +8705,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8747,14 +8742,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44573</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8767,7 +8762,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8804,14 +8799,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44638</v>
+        <v>44564</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8824,7 +8819,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8861,14 +8856,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45933</v>
+        <v>45833</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8881,7 +8876,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8918,14 +8913,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45933</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8938,7 +8933,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8975,14 +8970,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8995,7 +8990,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9032,14 +9027,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45325</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9052,7 +9047,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9089,14 +9084,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 2414-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>46036.74319444445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9109,7 +9104,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9146,14 +9141,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45343</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9166,7 +9161,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>12</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9203,14 +9198,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45054</v>
+        <v>45327</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9223,7 +9218,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9260,14 +9255,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 60287-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45994.64711805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9280,7 +9275,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9317,14 +9312,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>44546</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9336,8 +9331,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>10.6</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 3261-2026</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>46041.5952662037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 1500-2024</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45306</v>
+        <v>45091</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 61771-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>46002.6478587963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 61744-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44510</v>
+        <v>46002.60298611111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 61819-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>46003.3241087963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45028</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45325</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 62828-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45833</v>
+        <v>46008.66553240741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>44441</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45054</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 8956-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45713.46825231481</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 6621-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>46056.4970949074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 8659-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45712</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 7296-2026</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45329</v>
+        <v>46058.64341435185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 8111-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>46062</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10286,14 +10286,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45559</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10343,14 +10343,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 8110-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>46062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10400,14 +10400,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45804</v>
+        <v>44973</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10457,14 +10457,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 8112-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45804</v>
+        <v>46062</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10514,14 +10514,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 3413-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45804</v>
+        <v>44949</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10571,14 +10571,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 1291-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>46031.50569444444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10628,14 +10628,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 9783-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>46072.58835648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10685,14 +10685,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 10459-2026</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>46077.45564814815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10742,14 +10742,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45712</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10799,14 +10799,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45331</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10856,14 +10856,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45043</v>
+        <v>45306</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10913,14 +10913,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45257</v>
+        <v>45306</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10970,14 +10970,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45394</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11027,14 +11027,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45824.579375</v>
+        <v>45180</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11084,14 +11084,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46062</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11141,14 +11141,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 12055-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>44636</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11198,14 +11198,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>44805</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11255,14 +11255,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8110-2026</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46062</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 8112-2026</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46062</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45833</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45833</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45833</v>
+        <v>44656</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11540,14 +11540,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9783-2026</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46072.58835648148</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1291-2026</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46031.50569444444</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11651,17 +11651,17 @@
       </c>
       <c r="R172" s="2" t="inlineStr"/>
     </row>
-    <row r="173">
+    <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44456</v>
+        <v>44963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11707,6 +11707,63 @@
         <v>0</v>
       </c>
       <c r="R173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>A 3457-2022</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ALE.xlsx
+++ b/Översikt ALE.xlsx
@@ -575,7 +575,7 @@
         <v>44266</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45153</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45789</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>45357</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         <v>46010</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>45124</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
         <v>45789</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45559</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>45874.69311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45894.42600694444</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45924.51282407407</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>45796</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>46062</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1874,14 +1874,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 7903-2024</t>
+          <t>A 26491-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45350</v>
+        <v>45469</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1927,6 +1927,282 @@
         <v>4</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök
+Gulpudrad spiklav
+Rostfläck
+Sotlav</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 19934-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Bronshjon
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 60293-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45994.65568287037</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Rödvingetrast
+Björksplintborre
+Gulnål</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 7903-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
@@ -1934,308 +2210,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 7903-2024 artfynd.xlsx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 7903-2024 karta.png", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 7903-2024 FSC-klagomål.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 7903-2024 FSC-klagomål mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 7903-2024 tillsynsbegäran.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 7903-2024 tillsynsbegäran mail.docx", "A 7903-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 7903-2024 prioriterade fågelarter.docx", "A 7903-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 26491-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45469</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök
-Gulpudrad spiklav
-Rostfläck
-Sotlav</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26491-2024 artfynd.xlsx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26491-2024 karta.png", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26491-2024 FSC-klagomål.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26491-2024 FSC-klagomål mail.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26491-2024 tillsynsbegäran.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26491-2024 tillsynsbegäran mail.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 26491-2024 prioriterade fågelarter.docx", "A 26491-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 60293-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45994.65568287037</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Rödvingetrast
-Björksplintborre
-Gulnål</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 60293-2025 artfynd.xlsx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 60293-2025 karta.png", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 60293-2025 FSC-klagomål.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 60293-2025 FSC-klagomål mail.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 60293-2025 tillsynsbegäran.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 60293-2025 tillsynsbegäran mail.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 60293-2025 prioriterade fågelarter.docx", "A 60293-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 19934-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Bronshjon
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 19934-2025 artfynd.xlsx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 19934-2025 karta.png", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 19934-2025 FSC-klagomål.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 19934-2025 FSC-klagomål mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 19934-2025 tillsynsbegäran.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 19934-2025 tillsynsbegäran mail.docx", "A 19934-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 19934-2025 prioriterade fågelarter.docx", "A 19934-2025")</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>45275.39715277778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2333,14 +2333,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40931-2025</t>
+          <t>A 58954-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45897.64783564815</v>
+        <v>44903</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2388,49 +2388,49 @@
       <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 1503-2024</t>
+          <t>A 42660-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45306.35041666667</v>
+        <v>45566.33841435185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2477,856 +2477,856 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 63569-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 40931-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45897.64783564815</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 40931-2025 artfynd.xlsx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 40931-2025 karta.png", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 40931-2025 FSC-klagomål.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 40931-2025 FSC-klagomål mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 40931-2025 tillsynsbegäran.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 40931-2025 tillsynsbegäran mail.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 40931-2025 prioriterade fågelarter.docx", "A 40931-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 2270-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45673.54403935185</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 2270-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45673.54403935185</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 1503-2024</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45306.35041666667</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 2270-2025 artfynd.xlsx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 2270-2025 karta.png", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 2270-2025 FSC-klagomål.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 2270-2025 FSC-klagomål mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 2270-2025 tillsynsbegäran.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 2270-2025 tillsynsbegäran mail.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 2270-2025 prioriterade fågelarter.docx", "A 2270-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 63569-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45275</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 1503-2024 artfynd.xlsx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 1503-2024 karta.png", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 1503-2024 FSC-klagomål.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 1503-2024 FSC-klagomål mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 1503-2024 tillsynsbegäran.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 1503-2024 tillsynsbegäran mail.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 1503-2024 prioriterade fågelarter.docx", "A 1503-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 13380-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45735.6765162037</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 63569-2023 artfynd.xlsx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 63569-2023 karta.png", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 63569-2023 FSC-klagomål.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 63569-2023 FSC-klagomål mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 63569-2023 tillsynsbegäran.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 63569-2023 tillsynsbegäran mail.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 63569-2023 prioriterade fågelarter.docx", "A 63569-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 13380-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45735.6765162037</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13380-2025 artfynd.xlsx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13380-2025 karta.png", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13380-2025 FSC-klagomål.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13380-2025 FSC-klagomål mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13380-2025 tillsynsbegäran.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13380-2025 tillsynsbegäran mail.docx", "A 13380-2025")</f>
         <v/>
       </c>
-      <c r="Z24">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13380-2025 prioriterade fågelarter.docx", "A 13380-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 16534-2025</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>45751.65315972222</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C27" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>1.5</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Entita
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 16534-2025 artfynd.xlsx", "A 16534-2025")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 16534-2025 karta.png", "A 16534-2025")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 16534-2025 FSC-klagomål.docx", "A 16534-2025")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 16534-2025 FSC-klagomål mail.docx", "A 16534-2025")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 16534-2025 tillsynsbegäran.docx", "A 16534-2025")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 16534-2025 tillsynsbegäran mail.docx", "A 16534-2025")</f>
         <v/>
       </c>
-      <c r="Z25">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 16534-2025 prioriterade fågelarter.docx", "A 16534-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 20586-2023</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>45057</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="C28" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>1.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Entita
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 20586-2023 artfynd.xlsx", "A 20586-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 20586-2023 karta.png", "A 20586-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 20586-2023 FSC-klagomål.docx", "A 20586-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 20586-2023 FSC-klagomål mail.docx", "A 20586-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 20586-2023 tillsynsbegäran.docx", "A 20586-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 20586-2023 tillsynsbegäran mail.docx", "A 20586-2023")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z28">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 20586-2023 prioriterade fågelarter.docx", "A 20586-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 380-2025</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>45662.43456018518</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C29" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>8.6</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J29" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 380-2025 artfynd.xlsx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 380-2025 karta.png", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 380-2025 FSC-klagomål.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 380-2025 FSC-klagomål mail.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 380-2025 tillsynsbegäran.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 380-2025 tillsynsbegäran mail.docx", "A 380-2025")</f>
         <v/>
       </c>
-      <c r="Z27">
+      <c r="Z29">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 380-2025 prioriterade fågelarter.docx", "A 380-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 8955-2025</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>45713.46528935185</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C30" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ALE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 8955-2025 artfynd.xlsx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 8955-2025 karta.png", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 8955-2025 FSC-klagomål.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 8955-2025 FSC-klagomål mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 8955-2025 tillsynsbegäran.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 8955-2025 tillsynsbegäran mail.docx", "A 8955-2025")</f>
         <v/>
       </c>
-      <c r="Z28">
+      <c r="Z30">
         <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 8955-2025 prioriterade fågelarter.docx", "A 8955-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 42660-2024</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45566.33841435185</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 42660-2024 artfynd.xlsx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 42660-2024 karta.png", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 42660-2024 FSC-klagomål.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 42660-2024 FSC-klagomål mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 42660-2024 tillsynsbegäran.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 42660-2024 tillsynsbegäran mail.docx", "A 42660-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 58954-2022</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>44903</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ALE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58954-2022 artfynd.xlsx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58954-2022 karta.png", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58954-2022 FSC-klagomål.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58954-2022 FSC-klagomål mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58954-2022 tillsynsbegäran.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58954-2022 tillsynsbegäran mail.docx", "A 58954-2022")</f>
-        <v/>
-      </c>
-      <c r="Z30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 58954-2022 prioriterade fågelarter.docx", "A 58954-2022")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26677-2025</t>
+          <t>A 26493-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45810.42446759259</v>
+        <v>45469</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3373,45 +3373,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47330-2025</t>
+          <t>A 12084-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45930.56170138889</v>
+        <v>45728.95387731482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3462,45 +3462,45 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
         <v/>
       </c>
       <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13902-2025</t>
+          <t>A 26677-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45737.63446759259</v>
+        <v>45810.42446759259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3513,16 +3513,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3547,49 +3547,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26677-2025 artfynd.xlsx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26677-2025 karta.png", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26677-2025 FSC-klagomål.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26677-2025 FSC-klagomål mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26677-2025 tillsynsbegäran.docx", "A 26677-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26677-2025 tillsynsbegäran mail.docx", "A 26677-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 58412-2025</t>
+          <t>A 47330-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45985.57564814815</v>
+        <v>45930.56170138889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3598,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3611,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3626,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3636,45 +3632,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Äkta lopplummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 47330-2025 artfynd.xlsx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 47330-2025 karta.png", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 47330-2025 FSC-klagomål.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 47330-2025 FSC-klagomål mail.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 47330-2025 tillsynsbegäran.docx", "A 47330-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 47330-2025 tillsynsbegäran mail.docx", "A 47330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 47330-2025 prioriterade fågelarter.docx", "A 47330-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62524-2025</t>
+          <t>A 13902-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46007.6247337963</v>
+        <v>45737.63446759259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3721,45 +3721,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 13902-2025 artfynd.xlsx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 13902-2025 karta.png", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 13902-2025 FSC-klagomål.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 13902-2025 FSC-klagomål mail.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 13902-2025 tillsynsbegäran.docx", "A 13902-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 13902-2025 tillsynsbegäran mail.docx", "A 13902-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 13902-2025 prioriterade fågelarter.docx", "A 13902-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12084-2025</t>
+          <t>A 58412-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45728.95387731482</v>
+        <v>45985.57564814815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3776,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3781,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3796,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3806,49 +3810,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äkta lopplummer</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12084-2025 artfynd.xlsx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 58412-2025 artfynd.xlsx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12084-2025 karta.png", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 58412-2025 karta.png", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12084-2025 FSC-klagomål.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 58412-2025 FSC-klagomål.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12084-2025 FSC-klagomål mail.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 58412-2025 FSC-klagomål mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12084-2025 tillsynsbegäran.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 58412-2025 tillsynsbegäran.docx", "A 58412-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12084-2025 tillsynsbegäran mail.docx", "A 12084-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/fåglar/A 12084-2025 prioriterade fågelarter.docx", "A 12084-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 58412-2025 tillsynsbegäran mail.docx", "A 58412-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26493-2024</t>
+          <t>A 12982-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45469</v>
+        <v>45385.53569444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -3895,45 +3895,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 26493-2024 artfynd.xlsx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 26493-2024 karta.png", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 26493-2024 FSC-klagomål.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 26493-2024 FSC-klagomål mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 26493-2024 tillsynsbegäran.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 26493-2024 tillsynsbegäran mail.docx", "A 26493-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12982-2024</t>
+          <t>A 62524-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45385.53569444444</v>
+        <v>46007.6247337963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -3984,27 +3984,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 12982-2024 artfynd.xlsx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/artfynd/A 62524-2025 artfynd.xlsx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 12982-2024 karta.png", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/kartor/A 62524-2025 karta.png", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 12982-2024 FSC-klagomål.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomål/A 62524-2025 FSC-klagomål.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 12982-2024 FSC-klagomål mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/klagomålsmail/A 62524-2025 FSC-klagomål mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 12982-2024 tillsynsbegäran.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsyn/A 62524-2025 tillsynsbegäran.docx", "A 62524-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 12982-2024 tillsynsbegäran mail.docx", "A 12982-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1440/tillsynsmail/A 62524-2025 tillsynsbegäran mail.docx", "A 62524-2025")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>44320.61850694445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44279.64517361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>44504.58171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44273</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44523</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44456</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44582.61788194445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4467,14 +4467,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31568-2021</t>
+          <t>A 65222-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44369</v>
+        <v>44515</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 65222-2021</t>
+          <t>A 22138-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44515</v>
+        <v>44324.67472222223</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22138-2021</t>
+          <t>A 31568-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44324.67472222223</v>
+        <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>44384</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4695,14 +4695,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 66893-2021</t>
+          <t>A 15508-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44522.49439814815</v>
+        <v>44662.39761574074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15508-2022</t>
+          <t>A 31566-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44662.39761574074</v>
+        <v>44369</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31566-2021</t>
+          <t>A 66893-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44369</v>
+        <v>44522.49439814815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>44443</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>44441</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44656.3837037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>44468</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44698.76347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5151,14 +5151,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44429-2023</t>
+          <t>A 53476-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45189.35101851852</v>
+        <v>45230.33737268519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6916-2023</t>
+          <t>A 3457-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44967.53349537037</v>
+        <v>44585</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1566-2022</t>
+          <t>A 41598-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44573</v>
+        <v>44827.4609837963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12445-2022</t>
+          <t>A 41607-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44638</v>
+        <v>44827.46658564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50451-2024</t>
+          <t>A 5916-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45601.44248842593</v>
+        <v>44963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 57473-2022</t>
+          <t>A 26157-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44896</v>
+        <v>45091.50479166667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49955-2021</t>
+          <t>A 26083-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44456</v>
+        <v>45091</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48213-2025</t>
+          <t>A 14458-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45933</v>
+        <v>45394</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48218-2025</t>
+          <t>A 14493-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45933</v>
+        <v>45394.58491898148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1822-2024</t>
+          <t>A 36763-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45307.6205787037</v>
+        <v>44805</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34104-2024</t>
+          <t>A 56493-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45523.79202546296</v>
+        <v>44480.57173611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3418-2023</t>
+          <t>A 45988-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44949.56182870371</v>
+        <v>44441</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40074-2025</t>
+          <t>A 5875-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45894.44685185186</v>
+        <v>44963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4971-2024</t>
+          <t>A 3407-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45329</v>
+        <v>44949.54909722223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22946-2025</t>
+          <t>A 4363-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45790.48229166667</v>
+        <v>45325</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6006,14 +6006,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37461-2024</t>
+          <t>A 51564-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45540.72516203704</v>
+        <v>45222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1960-2024</t>
+          <t>A 16601-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45308.50962962963</v>
+        <v>45753.53189814815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41607-2022</t>
+          <t>A 35959-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44827.46658564815</v>
+        <v>44802.57002314815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13426-2025</t>
+          <t>A 20067-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45736.32780092592</v>
+        <v>45054</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15499-2022</t>
+          <t>A 200-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44662</v>
+        <v>44564</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53476-2023</t>
+          <t>A 17044-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45230.33737268519</v>
+        <v>45755.58891203703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25849-2025</t>
+          <t>A 1500-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45804</v>
+        <v>45306</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6405,14 +6405,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25848-2025</t>
+          <t>A 36403-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45804</v>
+        <v>45535.69445601852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6469,7 +6469,7 @@
         <v>44475.53733796296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6519,14 +6519,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 51164-2024</t>
+          <t>A 6916-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45603.5830787037</v>
+        <v>44967.53349537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25840-2025</t>
+          <t>A 64199-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45804</v>
+        <v>44510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46226-2025</t>
+          <t>A 34104-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45924</v>
+        <v>45523.79202546296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6690,14 +6690,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56493-2021</t>
+          <t>A 47087-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44480.57173611111</v>
+        <v>45196</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6747,14 +6747,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46227-2025</t>
+          <t>A 4642-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45924.90386574074</v>
+        <v>45328.43502314815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.3</v>
+        <v>7.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6804,14 +6804,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18637-2023</t>
+          <t>A 48257-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45043</v>
+        <v>44858.47591435185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6861,14 +6861,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 59933-2023</t>
+          <t>A 18999-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45257</v>
+        <v>44308</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6925,7 +6925,7 @@
         <v>44727.59578703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6975,14 +6975,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5344-2024</t>
+          <t>A 15582-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45331</v>
+        <v>45747.81394675926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7032,14 +7032,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47592-2025</t>
+          <t>A 1687-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45931.44649305556</v>
+        <v>45306</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7089,14 +7089,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47593-2025</t>
+          <t>A 14731-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45931.4480787037</v>
+        <v>44656</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7146,14 +7146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32762-2023</t>
+          <t>A 50451-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45123.46649305556</v>
+        <v>45601.44248842593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47728-2025</t>
+          <t>A 49680-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45931.63186342592</v>
+        <v>45596.66880787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7260,14 +7260,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29373-2025</t>
+          <t>A 3520-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45824.579375</v>
+        <v>44585.72818287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7317,14 +7317,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 50189-2025</t>
+          <t>A 33237-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45943.63476851852</v>
+        <v>45518.59173611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7374,14 +7374,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13382-2025</t>
+          <t>A 44429-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45735.67928240741</v>
+        <v>45189.35101851852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7431,14 +7431,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51564-2023</t>
+          <t>A 7892-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45222</v>
+        <v>45350.40921296296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7488,14 +7488,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13903-2025</t>
+          <t>A 51164-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45737.63481481482</v>
+        <v>45603.5830787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7545,14 +7545,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31409-2025</t>
+          <t>A 4444-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45833</v>
+        <v>45327</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7602,14 +7602,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31488-2025</t>
+          <t>A 40074-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45833</v>
+        <v>45894.44685185186</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7659,14 +7659,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31533-2025</t>
+          <t>A 72801-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45833</v>
+        <v>44546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7678,8 +7678,13 @@
           <t>ALE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7716,14 +7721,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50973-2025</t>
+          <t>A 22946-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45947.31263888889</v>
+        <v>45790.48229166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7736,7 +7741,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7773,14 +7778,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26157-2023</t>
+          <t>A 7807-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45091.50479166667</v>
+        <v>44973</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7793,7 +7798,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>10.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7830,14 +7835,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47087-2023</t>
+          <t>A 4971-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45196</v>
+        <v>45329</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7850,7 +7855,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7887,14 +7892,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27314-2021</t>
+          <t>A 55488-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44351.36537037037</v>
+        <v>44887</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7907,7 +7912,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>11.3</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7944,14 +7949,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51976-2025</t>
+          <t>A 37461-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45952.56412037037</v>
+        <v>45540.72516203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7964,7 +7969,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8001,14 +8006,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5875-2023</t>
+          <t>A 42446-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44963</v>
+        <v>45180</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8021,7 +8026,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8058,14 +8063,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52423-2025</t>
+          <t>A 13426-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45954.37650462963</v>
+        <v>45736.32780092592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8078,7 +8083,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8115,14 +8120,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 64199-2021</t>
+          <t>A 67160-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44510</v>
+        <v>44523</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8135,7 +8140,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8172,14 +8177,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52391-2025</t>
+          <t>A 16344-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45954.34305555555</v>
+        <v>45028</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8192,7 +8197,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>10.6</v>
+        <v>6.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8229,14 +8234,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 67160-2021</t>
+          <t>A 32762-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44523</v>
+        <v>45123.46649305556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8249,7 +8254,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8286,14 +8291,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3520-2022</t>
+          <t>A 25849-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44585.72818287037</v>
+        <v>45804</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8306,7 +8311,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8343,14 +8348,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 65226-2021</t>
+          <t>A 25848-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44515</v>
+        <v>45804</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8363,7 +8368,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8400,14 +8405,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 18999-2021</t>
+          <t>A 25840-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44308</v>
+        <v>45804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8420,7 +8425,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8457,14 +8462,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56905-2025</t>
+          <t>A 46226-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45978.57502314815</v>
+        <v>45924</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8477,7 +8482,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8514,14 +8519,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17044-2025</t>
+          <t>A 46227-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45755.58891203703</v>
+        <v>45924.90386574074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8534,7 +8539,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8571,14 +8576,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 55488-2022</t>
+          <t>A 47592-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44887</v>
+        <v>45931.44649305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8591,7 +8596,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8628,14 +8633,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58414-2025</t>
+          <t>A 5344-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45985.57778935185</v>
+        <v>45331</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8648,7 +8653,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8685,14 +8690,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16601-2025</t>
+          <t>A 47593-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45753.53189814815</v>
+        <v>45931.4480787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8705,7 +8710,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8742,14 +8747,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 36403-2024</t>
+          <t>A 47728-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45535.69445601852</v>
+        <v>45931.63186342592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8762,7 +8767,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8799,14 +8804,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 200-2022</t>
+          <t>A 57473-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44564</v>
+        <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8819,7 +8824,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8856,14 +8861,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31407-2025</t>
+          <t>A 1566-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45833</v>
+        <v>44573</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8876,7 +8881,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8913,14 +8918,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59409-2025</t>
+          <t>A 18637-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45989.49545138889</v>
+        <v>45043</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8933,7 +8938,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8970,14 +8975,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15582-2025</t>
+          <t>A 59933-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45747.81394675926</v>
+        <v>45257</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8990,7 +8995,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9027,14 +9032,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7892-2024</t>
+          <t>A 12445-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45350.40921296296</v>
+        <v>44638</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9047,7 +9052,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9084,14 +9089,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2414-2026</t>
+          <t>A 48213-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46036.74319444445</v>
+        <v>45933</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9141,14 +9146,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6947-2024</t>
+          <t>A 48218-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45343</v>
+        <v>45933</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9161,7 +9166,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9198,14 +9203,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4444-2024</t>
+          <t>A 29373-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45327</v>
+        <v>45824.579375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9218,7 +9223,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9255,14 +9260,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 60287-2025</t>
+          <t>A 50189-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45994.64711805555</v>
+        <v>45943.63476851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9275,7 +9280,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9312,14 +9317,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 72801-2021</t>
+          <t>A 13382-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44546</v>
+        <v>45735.67928240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9331,13 +9336,8 @@
           <t>ALE</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9374,14 +9374,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 3261-2026</t>
+          <t>A 1822-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46041.5952662037</v>
+        <v>45307.6205787037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9431,14 +9431,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26083-2023</t>
+          <t>A 13903-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45091</v>
+        <v>45737.63481481482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9488,14 +9488,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61771-2025</t>
+          <t>A 15241-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46002.6478587963</v>
+        <v>45744.61255787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9545,14 +9545,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61744-2025</t>
+          <t>A 50973-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46002.60298611111</v>
+        <v>45947.31263888889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9602,14 +9602,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61819-2025</t>
+          <t>A 31409-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46003.3241087963</v>
+        <v>45833</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9659,14 +9659,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 16344-2023</t>
+          <t>A 31533-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45028</v>
+        <v>45833</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9716,14 +9716,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 4363-2024</t>
+          <t>A 31488-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45325</v>
+        <v>45833</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9773,14 +9773,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 62828-2025</t>
+          <t>A 51976-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46008.66553240741</v>
+        <v>45952.56412037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9830,14 +9830,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45988-2021</t>
+          <t>A 6947-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44441</v>
+        <v>45343</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9887,14 +9887,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20067-2023</t>
+          <t>A 52391-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45054</v>
+        <v>45954.34305555555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>10.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9944,14 +9944,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 8956-2025</t>
+          <t>A 52423-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45713.46825231481</v>
+        <v>45954.37650462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10001,14 +10001,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6621-2026</t>
+          <t>A 56905-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46056.4970949074</v>
+        <v>45978.57502314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10058,14 +10058,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8659-2025</t>
+          <t>A 34153-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45712</v>
+        <v>45524.38400462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10115,14 +10115,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7296-2026</t>
+          <t>A 58414-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46058.64341435185</v>
+        <v>45985.57778935185</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10172,14 +10172,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 48257-2022</t>
+          <t>A 41309-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44858.47591435185</v>
+        <v>45559</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10229,14 +10229,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8111-2026</t>
+          <t>A 15499-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46062</v>
+        <v>44662</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10286,14 +10286,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41309-2024</t>
+          <t>A 31407-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45559</v>
+        <v>45833</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10343,14 +10343,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8110-2026</t>
+          <t>A 59409-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46062</v>
+        <v>45989.49545138889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         </is>
      